--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-25 20:43:20</t>
+    <t>2023-03-25 20:51:33</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-25 20:51:33</t>
+    <t>2023-03-25 21:53:35</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-25 21:53:35</t>
+    <t>2023-03-25 22:26:57</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-25 22:26:57</t>
+    <t>2023-03-25 22:50:49</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-25 22:50:49</t>
+    <t>2023-03-26 07:57:01</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 07:57:01</t>
+    <t>2023-03-26 08:09:44</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 08:09:44</t>
+    <t>2023-03-26 09:39:17</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 09:39:17</t>
+    <t>2023-03-26 12:56:26</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -757,7 +757,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 12:56:26</t>
+    <t>2023-03-26 13:48:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -12,9 +12,9 @@
     <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="BoardQty" localSheetId="1">'Costs'!$G$2</definedName>
+    <definedName name="BoardQty" localSheetId="1">'Costs'!$H$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="TotalCost" localSheetId="1">'Costs'!$G$4</definedName>
+    <definedName name="TotalCost" localSheetId="1">'Costs'!$H$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -26,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,12 +87,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Manufacturer of each part.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Manufacturer number for each part and link to it's datasheet (Ctrl-click).
 Purple -&gt; Obsolete part detected by one of the distributors.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="234">
   <si>
     <t>Row</t>
   </si>
@@ -169,6 +182,18 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>PARTREV</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MAXIMUM_PACKAGE_HEIGHT</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -205,12 +230,12 @@
     <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>https://www.digikey.ch/en/products/detail/vishay-beyschlag-draloric-bc-components/K104K20X7RH5TL2/286568</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -490,6 +515,27 @@
     <t>14</t>
   </si>
   <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>11.70mm</t>
+  </si>
+  <si>
+    <t>Manufacturer Recommendations</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -508,7 +554,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>R3</t>
@@ -520,7 +566,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>R1</t>
@@ -532,7 +578,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -544,7 +590,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -568,7 +614,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>SW5</t>
@@ -577,19 +623,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>SW2</t>
@@ -598,7 +644,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>SW3</t>
@@ -607,7 +653,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -631,7 +677,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>SW7</t>
@@ -640,7 +686,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -661,7 +707,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Pico</t>
@@ -718,7 +764,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>58 (0 SMD/ 56 THT)</t>
+    <t>59 (0 SMD/ 56 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -733,6 +779,9 @@
     <t>Global Part Info</t>
   </si>
   <si>
+    <t>Manf</t>
+  </si>
+  <si>
     <t>Manf#</t>
   </si>
   <si>
@@ -745,6 +794,9 @@
     <t>Ext$</t>
   </si>
   <si>
+    <t>CUI Inc.</t>
+  </si>
+  <si>
     <t>Board Qty:</t>
   </si>
   <si>
@@ -757,7 +809,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 13:48:24</t>
+    <t>2023-03-26 17:42:08</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1532,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1545,19 +1597,23 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" customWidth="1"/>
+    <col min="14" max="14" width="60.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1568,78 +1624,82 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F2" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1676,960 +1736,1272 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="60" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="F29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="I29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="60" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F30" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="I30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="I31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="J32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
+      <c r="O32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>167</v>
@@ -2638,74 +3010,148 @@
         <v>168</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J34" s="10" t="s">
         <v>172</v>
       </c>
+      <c r="J34" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="K34" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>22</v>
+        <v>177</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2715,11 +3161,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -2727,85 +3173,87 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1">
+    <row r="1" spans="1:8" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="13">
+        <v>192</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="15">
+        <v>194</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="15">
         <f>TotalCost/BoardQty</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="16">
-        <f>SUM(G10:G36)</f>
+        <v>196</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="16">
+        <f>SUM(H10:H37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -2813,8 +3261,9 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
@@ -2825,793 +3274,823 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>211</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="19">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="19">
         <f>CEILING(BoardQty*12,1)</f>
         <v>12</v>
       </c>
-      <c r="G10" s="20">
-        <f>IF(AND(ISNUMBER(E10),ISNUMBER(F10)),E10*F10,"")</f>
+      <c r="H10" s="20">
+        <f>IF(AND(ISNUMBER(F10),ISNUMBER(G10)),F10*G10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19">
+        <v>31</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G11" s="20">
-        <f>IF(AND(ISNUMBER(E11),ISNUMBER(F11)),E11*F11,"")</f>
+      <c r="H11" s="20">
+        <f>IF(AND(ISNUMBER(F11),ISNUMBER(G11)),F11*G11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
+    <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="19">
+        <v>41</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="19">
         <f>CEILING(BoardQty*10,1)</f>
         <v>10</v>
       </c>
-      <c r="G12" s="20">
-        <f>IF(AND(ISNUMBER(E12),ISNUMBER(F12)),E12*F12,"")</f>
+      <c r="H12" s="20">
+        <f>IF(AND(ISNUMBER(F12),ISNUMBER(G12)),F12*G12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
+    <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="19">
+        <v>50</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="19">
         <f>CEILING(BoardQty*5,1)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="20">
-        <f>IF(AND(ISNUMBER(E13),ISNUMBER(F13)),E13*F13,"")</f>
+      <c r="H13" s="20">
+        <f>IF(AND(ISNUMBER(F13),ISNUMBER(G13)),F13*G13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
+    <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="19">
+        <v>57</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G14" s="20">
-        <f>IF(AND(ISNUMBER(E14),ISNUMBER(F14)),E14*F14,"")</f>
+      <c r="H14" s="20">
+        <f>IF(AND(ISNUMBER(F14),ISNUMBER(G14)),F14*G14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
+    <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="19">
+        <v>65</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G15" s="20">
-        <f>IF(AND(ISNUMBER(E15),ISNUMBER(F15)),E15*F15,"")</f>
+      <c r="H15" s="20">
+        <f>IF(AND(ISNUMBER(F15),ISNUMBER(G15)),F15*G15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="19">
+        <v>73</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G16" s="20">
-        <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
+      <c r="H16" s="20">
+        <f>IF(AND(ISNUMBER(F16),ISNUMBER(G16)),F16*G16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="19">
+        <v>81</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="20">
-        <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
+      <c r="H17" s="20">
+        <f>IF(AND(ISNUMBER(F17),ISNUMBER(G17)),F17*G17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+    <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="19">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G18" s="20">
-        <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
+      <c r="H18" s="20">
+        <f>IF(AND(ISNUMBER(F18),ISNUMBER(G18)),F18*G18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+    <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="19">
+        <v>96</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G19" s="20">
-        <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
+      <c r="H19" s="20">
+        <f>IF(AND(ISNUMBER(F19),ISNUMBER(G19)),F19*G19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="19">
+        <v>102</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G20" s="20">
-        <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
+      <c r="H20" s="20">
+        <f>IF(AND(ISNUMBER(F20),ISNUMBER(G20)),F20*G20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+    <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="19">
+        <v>108</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G21" s="20">
-        <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
+      <c r="H21" s="20">
+        <f>IF(AND(ISNUMBER(F21),ISNUMBER(G21)),F21*G21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+    <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="19">
+        <v>116</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="19">
         <f>CEILING(BoardQty*5,1)</f>
         <v>5</v>
       </c>
-      <c r="G22" s="20">
-        <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
+      <c r="H22" s="20">
+        <f>IF(AND(ISNUMBER(F22),ISNUMBER(G22)),F22*G22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="19">
+        <v>213</v>
+      </c>
+      <c r="F23" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G23" s="20">
-        <f>IF(AND(ISNUMBER(E23),ISNUMBER(F23)),E23*F23,"")</f>
+      <c r="H23" s="20">
+        <f>IF(AND(ISNUMBER(F23),ISNUMBER(G23)),F23*G23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="19">
+        <v>130</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G24" s="20">
-        <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
+      <c r="H24" s="20">
+        <f>IF(AND(ISNUMBER(F24),ISNUMBER(G24)),F24*G24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="19">
+        <v>130</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G25" s="20">
-        <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
+      <c r="H25" s="20">
+        <f>IF(AND(ISNUMBER(F25),ISNUMBER(G25)),F25*G25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="F26" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="20">
+        <f>IF(AND(ISNUMBER(F26),ISNUMBER(G26)),F26*G26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="20">
-        <f>IF(AND(ISNUMBER(E26),ISNUMBER(F26)),E26*F26,"")</f>
+      <c r="H27" s="20">
+        <f>IF(AND(ISNUMBER(F27),ISNUMBER(G27)),F27*G27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="19">
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G27" s="20">
-        <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
+      <c r="H28" s="20">
+        <f>IF(AND(ISNUMBER(F28),ISNUMBER(G28)),F28*G28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="19">
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G28" s="20">
-        <f>IF(AND(ISNUMBER(E28),ISNUMBER(F28)),E28*F28,"")</f>
+      <c r="H29" s="20">
+        <f>IF(AND(ISNUMBER(F29),ISNUMBER(G29)),F29*G29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="19">
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G29" s="20">
-        <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
+      <c r="H30" s="20">
+        <f>IF(AND(ISNUMBER(F30),ISNUMBER(G30)),F30*G30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="19">
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G30" s="20">
-        <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
+      <c r="H31" s="20">
+        <f>IF(AND(ISNUMBER(F31),ISNUMBER(G31)),F31*G31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="19" t="s">
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="19">
+      <c r="F32" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G31" s="20">
-        <f>IF(AND(ISNUMBER(E31),ISNUMBER(F31)),E31*F31,"")</f>
+      <c r="H32" s="20">
+        <f>IF(AND(ISNUMBER(F32),ISNUMBER(G32)),F32*G32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="19">
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G32" s="20">
-        <f>IF(AND(ISNUMBER(E32),ISNUMBER(F32)),E32*F32,"")</f>
+      <c r="H33" s="20">
+        <f>IF(AND(ISNUMBER(F33),ISNUMBER(G33)),F33*G33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="19">
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G33" s="20">
-        <f>IF(AND(ISNUMBER(E33),ISNUMBER(F33)),E33*F33,"")</f>
+      <c r="H34" s="20">
+        <f>IF(AND(ISNUMBER(F34),ISNUMBER(G34)),F34*G34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="19">
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="20">
-        <f>IF(AND(ISNUMBER(E34),ISNUMBER(F34)),E34*F34,"")</f>
+      <c r="H35" s="20">
+        <f>IF(AND(ISNUMBER(F35),ISNUMBER(G35)),F35*G35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="19">
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G35" s="20">
-        <f>IF(AND(ISNUMBER(E35),ISNUMBER(F35)),E35*F35,"")</f>
+      <c r="H36" s="20">
+        <f>IF(AND(ISNUMBER(F36),ISNUMBER(G36)),F36*G36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="19">
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G36" s="20">
-        <f>IF(AND(ISNUMBER(E36),ISNUMBER(F36)),E36*F36,"")</f>
+      <c r="H37" s="20">
+        <f>IF(AND(ISNUMBER(F37),ISNUMBER(G37)),F37*G37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="23" t="s">
-        <v>206</v>
+    <row r="40" spans="1:8">
+      <c r="A40" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="23" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(ISBLANK(D10),TRUE())</formula>
+      <formula>AND(ISBLANK(E10),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="F11">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(ISBLANK(D11),TRUE())</formula>
+      <formula>AND(ISBLANK(E11),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="F12">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(ISBLANK(D12),TRUE())</formula>
+      <formula>AND(ISBLANK(E12),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(ISBLANK(D13),TRUE())</formula>
+      <formula>AND(ISBLANK(E13),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(ISBLANK(D14),TRUE())</formula>
+      <formula>AND(ISBLANK(E14),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="F15">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(ISBLANK(D15),TRUE())</formula>
+      <formula>AND(ISBLANK(E15),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="F16">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND(ISBLANK(D16),TRUE())</formula>
+      <formula>AND(ISBLANK(E16),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(ISBLANK(D17),TRUE())</formula>
+      <formula>AND(ISBLANK(E17),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(ISBLANK(D18),TRUE())</formula>
+      <formula>AND(ISBLANK(E18),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="F19">
     <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND(ISBLANK(D19),TRUE())</formula>
+      <formula>AND(ISBLANK(E19),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>AND(ISBLANK(D20),TRUE())</formula>
+      <formula>AND(ISBLANK(E20),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="F21">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(ISBLANK(D21),TRUE())</formula>
+      <formula>AND(ISBLANK(E21),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND(ISBLANK(D22),TRUE())</formula>
+      <formula>AND(ISBLANK(E22),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="F23">
     <cfRule type="expression" dxfId="0" priority="14">
-      <formula>AND(ISBLANK(D23),TRUE())</formula>
+      <formula>AND(ISBLANK(E23),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="F24">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND(ISBLANK(D24),TRUE())</formula>
+      <formula>AND(ISBLANK(E24),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="F25">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>AND(ISBLANK(D25),TRUE())</formula>
+      <formula>AND(ISBLANK(E25),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="F26">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND(ISBLANK(D26),TRUE())</formula>
+      <formula>AND(ISBLANK(E26),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" dxfId="0" priority="18">
-      <formula>AND(ISBLANK(D27),TRUE())</formula>
+      <formula>AND(ISBLANK(E27),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F28">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>AND(ISBLANK(D28),TRUE())</formula>
+      <formula>AND(ISBLANK(E28),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="expression" dxfId="0" priority="20">
-      <formula>AND(ISBLANK(D29),TRUE())</formula>
+      <formula>AND(ISBLANK(E29),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="F30">
     <cfRule type="expression" dxfId="0" priority="21">
-      <formula>AND(ISBLANK(D30),TRUE())</formula>
+      <formula>AND(ISBLANK(E30),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="F31">
     <cfRule type="expression" dxfId="0" priority="22">
-      <formula>AND(ISBLANK(D31),TRUE())</formula>
+      <formula>AND(ISBLANK(E31),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="F32">
     <cfRule type="expression" dxfId="0" priority="23">
-      <formula>AND(ISBLANK(D32),TRUE())</formula>
+      <formula>AND(ISBLANK(E32),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="F33">
     <cfRule type="expression" dxfId="0" priority="24">
-      <formula>AND(ISBLANK(D33),TRUE())</formula>
+      <formula>AND(ISBLANK(E33),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="0" priority="25">
-      <formula>AND(ISBLANK(D34),TRUE())</formula>
+      <formula>AND(ISBLANK(E34),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="0" priority="26">
-      <formula>AND(ISBLANK(D35),TRUE())</formula>
+      <formula>AND(ISBLANK(E35),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" dxfId="0" priority="27">
-      <formula>AND(ISBLANK(D36),TRUE())</formula>
+      <formula>AND(ISBLANK(E36),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>AND(ISBLANK(E37),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D19" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D25" r:id="rId16"/>
-    <hyperlink ref="D26" r:id="rId17"/>
-    <hyperlink ref="D27" r:id="rId18"/>
-    <hyperlink ref="D28" r:id="rId19"/>
-    <hyperlink ref="D29" r:id="rId20"/>
-    <hyperlink ref="D30" r:id="rId21"/>
-    <hyperlink ref="D31" r:id="rId22"/>
-    <hyperlink ref="D32" r:id="rId23"/>
-    <hyperlink ref="D33" r:id="rId24"/>
-    <hyperlink ref="D34" r:id="rId25"/>
-    <hyperlink ref="D35" r:id="rId26"/>
-    <hyperlink ref="D36" r:id="rId27"/>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId8"/>
+    <hyperlink ref="E18" r:id="rId9"/>
+    <hyperlink ref="E19" r:id="rId10"/>
+    <hyperlink ref="E20" r:id="rId11"/>
+    <hyperlink ref="E21" r:id="rId12"/>
+    <hyperlink ref="E22" r:id="rId13"/>
+    <hyperlink ref="E24" r:id="rId14"/>
+    <hyperlink ref="E25" r:id="rId15"/>
+    <hyperlink ref="E26" r:id="rId16"/>
+    <hyperlink ref="E27" r:id="rId17"/>
+    <hyperlink ref="E28" r:id="rId18"/>
+    <hyperlink ref="E29" r:id="rId19"/>
+    <hyperlink ref="E30" r:id="rId20"/>
+    <hyperlink ref="E31" r:id="rId21"/>
+    <hyperlink ref="E32" r:id="rId22"/>
+    <hyperlink ref="E33" r:id="rId23"/>
+    <hyperlink ref="E34" r:id="rId24"/>
+    <hyperlink ref="E35" r:id="rId25"/>
+    <hyperlink ref="E36" r:id="rId26"/>
+    <hyperlink ref="E37" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId28"/>
@@ -3632,72 +4111,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -12,9 +12,9 @@
     <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="BoardQty" localSheetId="1">'Costs'!$H$2</definedName>
+    <definedName name="BoardQty" localSheetId="1">'Costs'!$G$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="TotalCost" localSheetId="1">'Costs'!$H$4</definedName>
+    <definedName name="TotalCost" localSheetId="1">'Costs'!$G$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -26,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,25 +87,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Manufacturer of each part.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>Manufacturer number for each part and link to it's datasheet (Ctrl-click).
 Purple -&gt; Obsolete part detected by one of the distributors.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="263">
   <si>
     <t>Row</t>
   </si>
@@ -182,18 +169,6 @@
     <t>Datasheet</t>
   </si>
   <si>
-    <t>PARTREV</t>
-  </si>
-  <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
-    <t>MAXIMUM_PACKAGE_HEIGHT</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -212,6 +187,30 @@
     <t>C</t>
   </si>
   <si>
+    <t>C18 C19</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C_Disc_D7.5mm_W4.4mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/C330C102JHR5TA/1465599</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
   </si>
   <si>
@@ -224,19 +223,55 @@
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.digikey.ch/en/products/detail/vishay-beyschlag-draloric-bc-components/K104K20X7RH5TL2/286568</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17</t>
+  </si>
+  <si>
+    <t>4.7uF 50V</t>
+  </si>
+  <si>
+    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/C322C475K5R5TA/3726055</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cornell-dubilier-illinois-capacitor/227AVG050MGBJ/5411698</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>100V 0.15A standard switching diode, DO-35</t>
@@ -263,7 +298,7 @@
     <t>1=K 2=A</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
@@ -290,7 +325,43 @@
     <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12986/5673799</t>
   </si>
   <si>
-    <t>4</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with a mounting pin</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/PJ-063AH/2161208</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -308,9 +379,6 @@
     <t>Jack_6.35mm_Horizontal</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
@@ -335,7 +403,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>6</t>
+    <t>11</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -359,9 +427,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -383,7 +448,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>8</t>
+    <t>13</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -407,7 +472,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>9</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -431,6 +496,9 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
@@ -452,7 +520,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>11</t>
+    <t>16</t>
   </si>
   <si>
     <t>J7</t>
@@ -470,6 +538,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>USB Type A connector</t>
   </si>
   <si>
@@ -488,7 +559,22 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>13</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -512,7 +598,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>14</t>
+    <t>20</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -524,16 +610,13 @@
     <t>CONV_PDQE15-Q24-S5-D</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>11.70mm</t>
-  </si>
-  <si>
-    <t>Manufacturer Recommendations</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -554,7 +637,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>16</t>
+    <t>22</t>
   </si>
   <si>
     <t>R3</t>
@@ -566,7 +649,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>17</t>
+    <t>23</t>
   </si>
   <si>
     <t>R1</t>
@@ -578,7 +661,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>18</t>
+    <t>24</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -590,7 +673,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>19</t>
+    <t>25</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -614,7 +697,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>20</t>
+    <t>26</t>
   </si>
   <si>
     <t>SW5</t>
@@ -623,19 +706,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>21</t>
+    <t>27</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>22</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>23</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW2</t>
@@ -644,7 +727,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>24</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW3</t>
@@ -653,7 +736,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>25</t>
+    <t>31</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -677,7 +760,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>26</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW7</t>
@@ -686,9 +769,6 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -707,7 +787,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>28</t>
+    <t>34</t>
   </si>
   <si>
     <t>Pico</t>
@@ -764,7 +844,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>59 (0 SMD/ 56 THT)</t>
+    <t>69 (0 SMD/ 57 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -779,9 +859,6 @@
     <t>Global Part Info</t>
   </si>
   <si>
-    <t>Manf</t>
-  </si>
-  <si>
     <t>Manf#</t>
   </si>
   <si>
@@ -794,9 +871,6 @@
     <t>Ext$</t>
   </si>
   <si>
-    <t>CUI Inc.</t>
-  </si>
-  <si>
     <t>Board Qty:</t>
   </si>
   <si>
@@ -809,7 +883,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 17:42:08</t>
+    <t>2023-03-26 20:36:06</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1584,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1595,25 +1669,21 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1"/>
-    <col min="14" max="14" width="60.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" customHeight="1">
+    <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1624,82 +1694,78 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F2" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="F6" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1736,878 +1802,662 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="K9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="J12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="K12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="J13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="K13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="11" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="60" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="J15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="J16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="J17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="F18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="J18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="K18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="J19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="J21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="10" t="s">
+      <c r="K21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="J22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="K22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="J23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="K23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="G24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="J24" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="K24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="K25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="O25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>142</v>
@@ -2615,443 +2465,335 @@
       <c r="E26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>130</v>
+      <c r="F26" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>131</v>
+        <v>19</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K27" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>25</v>
+        <v>156</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>25</v>
+      <c r="J32" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>25</v>
+        <v>183</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>25</v>
+        <v>183</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>178</v>
@@ -3060,98 +2802,302 @@
         <v>179</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="D36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="6" t="s">
+      <c r="G36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="K36" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="C1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3161,11 +3107,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -3173,87 +3119,85 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" customHeight="1">
+    <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="13">
+        <v>223</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="15">
+        <v>225</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4" s="16">
-        <f>SUM(H10:H37)</f>
+        <v>227</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUM(G10:G43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3261,9 +3205,8 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
@@ -3274,827 +3217,985 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="19">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="20">
+        <f>IF(AND(ISNUMBER(E10),ISNUMBER(F10)),E10*F10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="19">
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="19">
         <f>CEILING(BoardQty*12,1)</f>
         <v>12</v>
       </c>
-      <c r="H10" s="20">
-        <f>IF(AND(ISNUMBER(F10),ISNUMBER(G10)),F10*G10,"")</f>
+      <c r="G11" s="20">
+        <f>IF(AND(ISNUMBER(E11),ISNUMBER(F11)),E11*F11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="19">
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="19">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="20">
+        <f>IF(AND(ISNUMBER(E12),ISNUMBER(F12)),E12*F12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="19">
+        <f>CEILING(BoardQty*3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="20">
+        <f>IF(AND(ISNUMBER(E13),ISNUMBER(F13)),E13*F13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H11" s="20">
-        <f>IF(AND(ISNUMBER(F11),ISNUMBER(G11)),F11*G11,"")</f>
+      <c r="G14" s="20">
+        <f>IF(AND(ISNUMBER(E14),ISNUMBER(F14)),E14*F14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="19">
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="19">
         <f>CEILING(BoardQty*10,1)</f>
         <v>10</v>
       </c>
-      <c r="H12" s="20">
-        <f>IF(AND(ISNUMBER(F12),ISNUMBER(G12)),F12*G12,"")</f>
+      <c r="G15" s="20">
+        <f>IF(AND(ISNUMBER(E15),ISNUMBER(F15)),E15*F15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="19">
+    <row r="16" spans="1:7">
+      <c r="A16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="20">
+        <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="19">
         <f>CEILING(BoardQty*5,1)</f>
         <v>5</v>
       </c>
-      <c r="H13" s="20">
-        <f>IF(AND(ISNUMBER(F13),ISNUMBER(G13)),F13*G13,"")</f>
+      <c r="G18" s="20">
+        <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="19">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H14" s="20">
-        <f>IF(AND(ISNUMBER(F14),ISNUMBER(G14)),F14*G14,"")</f>
+      <c r="G19" s="20">
+        <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="19">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H15" s="20">
-        <f>IF(AND(ISNUMBER(F15),ISNUMBER(G15)),F15*G15,"")</f>
+      <c r="G20" s="20">
+        <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="19">
+    <row r="21" spans="1:7">
+      <c r="A21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="H16" s="20">
-        <f>IF(AND(ISNUMBER(F16),ISNUMBER(G16)),F16*G16,"")</f>
+      <c r="G21" s="20">
+        <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="19">
+    <row r="22" spans="1:7">
+      <c r="A22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="H17" s="20">
-        <f>IF(AND(ISNUMBER(F17),ISNUMBER(G17)),F17*G17,"")</f>
+      <c r="G22" s="20">
+        <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="19">
+    <row r="23" spans="1:7" ht="30" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H18" s="20">
-        <f>IF(AND(ISNUMBER(F18),ISNUMBER(G18)),F18*G18,"")</f>
+      <c r="G23" s="20">
+        <f>IF(AND(ISNUMBER(E23),ISNUMBER(F23)),E23*F23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="19">
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H19" s="20">
-        <f>IF(AND(ISNUMBER(F19),ISNUMBER(G19)),F19*G19,"")</f>
+      <c r="G24" s="20">
+        <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="19">
+    <row r="25" spans="1:7">
+      <c r="A25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H20" s="20">
-        <f>IF(AND(ISNUMBER(F20),ISNUMBER(G20)),F20*G20,"")</f>
+      <c r="G25" s="20">
+        <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="19">
+    <row r="26" spans="1:7" ht="30" customHeight="1">
+      <c r="A26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H21" s="20">
-        <f>IF(AND(ISNUMBER(F21),ISNUMBER(G21)),F21*G21,"")</f>
+      <c r="G26" s="20">
+        <f>IF(AND(ISNUMBER(E26),ISNUMBER(F26)),E26*F26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="19">
+    <row r="27" spans="1:7">
+      <c r="A27" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
+        <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1">
+      <c r="A28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="19">
         <f>CEILING(BoardQty*5,1)</f>
         <v>5</v>
       </c>
-      <c r="H22" s="20">
-        <f>IF(AND(ISNUMBER(F22),ISNUMBER(G22)),F22*G22,"")</f>
+      <c r="G28" s="20">
+        <f>IF(AND(ISNUMBER(E28),ISNUMBER(F28)),E28*F28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="19">
+    <row r="29" spans="1:7">
+      <c r="A29" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H23" s="20">
-        <f>IF(AND(ISNUMBER(F23),ISNUMBER(G23)),F23*G23,"")</f>
+      <c r="G29" s="20">
+        <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="19">
+    <row r="30" spans="1:7">
+      <c r="A30" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H24" s="20">
-        <f>IF(AND(ISNUMBER(F24),ISNUMBER(G24)),F24*G24,"")</f>
+      <c r="G30" s="20">
+        <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="19">
+    <row r="31" spans="1:7">
+      <c r="A31" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H25" s="20">
-        <f>IF(AND(ISNUMBER(F25),ISNUMBER(G25)),F25*G25,"")</f>
+      <c r="G31" s="20">
+        <f>IF(AND(ISNUMBER(E31),ISNUMBER(F31)),E31*F31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="19">
+    <row r="32" spans="1:7">
+      <c r="A32" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H26" s="20">
-        <f>IF(AND(ISNUMBER(F26),ISNUMBER(G26)),F26*G26,"")</f>
+      <c r="G32" s="20">
+        <f>IF(AND(ISNUMBER(E32),ISNUMBER(F32)),E32*F32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="19">
+    <row r="33" spans="1:7">
+      <c r="A33" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="H27" s="20">
-        <f>IF(AND(ISNUMBER(F27),ISNUMBER(G27)),F27*G27,"")</f>
+      <c r="G33" s="20">
+        <f>IF(AND(ISNUMBER(E33),ISNUMBER(F33)),E33*F33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="19">
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H28" s="20">
-        <f>IF(AND(ISNUMBER(F28),ISNUMBER(G28)),F28*G28,"")</f>
+      <c r="G34" s="20">
+        <f>IF(AND(ISNUMBER(E34),ISNUMBER(F34)),E34*F34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="19">
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H29" s="20">
-        <f>IF(AND(ISNUMBER(F29),ISNUMBER(G29)),F29*G29,"")</f>
+      <c r="G35" s="20">
+        <f>IF(AND(ISNUMBER(E35),ISNUMBER(F35)),E35*F35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="19">
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H30" s="20">
-        <f>IF(AND(ISNUMBER(F30),ISNUMBER(G30)),F30*G30,"")</f>
+      <c r="G36" s="20">
+        <f>IF(AND(ISNUMBER(E36),ISNUMBER(F36)),E36*F36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="19">
+    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="A37" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H31" s="20">
-        <f>IF(AND(ISNUMBER(F31),ISNUMBER(G31)),F31*G31,"")</f>
+      <c r="G37" s="20">
+        <f>IF(AND(ISNUMBER(E37),ISNUMBER(F37)),E37*F37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="19">
+    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H32" s="20">
-        <f>IF(AND(ISNUMBER(F32),ISNUMBER(G32)),F32*G32,"")</f>
+      <c r="G38" s="20">
+        <f>IF(AND(ISNUMBER(E38),ISNUMBER(F38)),E38*F38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="19">
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H33" s="20">
-        <f>IF(AND(ISNUMBER(F33),ISNUMBER(G33)),F33*G33,"")</f>
+      <c r="G39" s="20">
+        <f>IF(AND(ISNUMBER(E39),ISNUMBER(F39)),E39*F39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1">
-      <c r="A34" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="19">
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H34" s="20">
-        <f>IF(AND(ISNUMBER(F34),ISNUMBER(G34)),F34*G34,"")</f>
+      <c r="G40" s="20">
+        <f>IF(AND(ISNUMBER(E40),ISNUMBER(F40)),E40*F40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="19">
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H35" s="20">
-        <f>IF(AND(ISNUMBER(F35),ISNUMBER(G35)),F35*G35,"")</f>
+      <c r="G41" s="20">
+        <f>IF(AND(ISNUMBER(E41),ISNUMBER(F41)),E41*F41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1">
-      <c r="A36" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="19">
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H36" s="20">
-        <f>IF(AND(ISNUMBER(F36),ISNUMBER(G36)),F36*G36,"")</f>
+      <c r="G42" s="20">
+        <f>IF(AND(ISNUMBER(E42),ISNUMBER(F42)),E42*F42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1">
-      <c r="A37" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="19">
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="H37" s="20">
-        <f>IF(AND(ISNUMBER(F37),ISNUMBER(G37)),F37*G37,"")</f>
+      <c r="G43" s="20">
+        <f>IF(AND(ISNUMBER(E43),ISNUMBER(F43)),E43*F43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="23" t="s">
-        <v>219</v>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="23" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="E10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(ISBLANK(E10),TRUE())</formula>
+      <formula>AND(ISBLANK(D10),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(ISBLANK(E11),TRUE())</formula>
+      <formula>AND(ISBLANK(D11),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="E12">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(ISBLANK(E12),TRUE())</formula>
+      <formula>AND(ISBLANK(D12),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(ISBLANK(E13),TRUE())</formula>
+      <formula>AND(ISBLANK(D13),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(ISBLANK(E14),TRUE())</formula>
+      <formula>AND(ISBLANK(D14),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="E15">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(ISBLANK(E15),TRUE())</formula>
+      <formula>AND(ISBLANK(D15),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="E16">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND(ISBLANK(E16),TRUE())</formula>
+      <formula>AND(ISBLANK(D16),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(ISBLANK(E17),TRUE())</formula>
+      <formula>AND(ISBLANK(D17),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="E18">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(ISBLANK(E18),TRUE())</formula>
+      <formula>AND(ISBLANK(D18),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="E19">
     <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND(ISBLANK(E19),TRUE())</formula>
+      <formula>AND(ISBLANK(D19),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>AND(ISBLANK(E20),TRUE())</formula>
+      <formula>AND(ISBLANK(D20),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="E21">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(ISBLANK(E21),TRUE())</formula>
+      <formula>AND(ISBLANK(D21),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="E22">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND(ISBLANK(E22),TRUE())</formula>
+      <formula>AND(ISBLANK(D22),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="0" priority="14">
-      <formula>AND(ISBLANK(E23),TRUE())</formula>
+      <formula>AND(ISBLANK(D23),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND(ISBLANK(E24),TRUE())</formula>
+      <formula>AND(ISBLANK(D24),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="E25">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>AND(ISBLANK(E25),TRUE())</formula>
+      <formula>AND(ISBLANK(D25),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="E26">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND(ISBLANK(E26),TRUE())</formula>
+      <formula>AND(ISBLANK(D26),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="E27">
     <cfRule type="expression" dxfId="0" priority="18">
-      <formula>AND(ISBLANK(E27),TRUE())</formula>
+      <formula>AND(ISBLANK(D27),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="E28">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>AND(ISBLANK(E28),TRUE())</formula>
+      <formula>AND(ISBLANK(D28),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="0" priority="20">
-      <formula>AND(ISBLANK(E29),TRUE())</formula>
+      <formula>AND(ISBLANK(D29),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="E30">
     <cfRule type="expression" dxfId="0" priority="21">
-      <formula>AND(ISBLANK(E30),TRUE())</formula>
+      <formula>AND(ISBLANK(D30),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="0" priority="22">
-      <formula>AND(ISBLANK(E31),TRUE())</formula>
+      <formula>AND(ISBLANK(D31),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="0" priority="23">
-      <formula>AND(ISBLANK(E32),TRUE())</formula>
+      <formula>AND(ISBLANK(D32),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="0" priority="24">
-      <formula>AND(ISBLANK(E33),TRUE())</formula>
+      <formula>AND(ISBLANK(D33),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="0" priority="25">
-      <formula>AND(ISBLANK(E34),TRUE())</formula>
+      <formula>AND(ISBLANK(D34),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="E35">
     <cfRule type="expression" dxfId="0" priority="26">
-      <formula>AND(ISBLANK(E35),TRUE())</formula>
+      <formula>AND(ISBLANK(D35),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="E36">
     <cfRule type="expression" dxfId="0" priority="27">
-      <formula>AND(ISBLANK(E36),TRUE())</formula>
+      <formula>AND(ISBLANK(D36),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="0" priority="28">
-      <formula>AND(ISBLANK(E37),TRUE())</formula>
+      <formula>AND(ISBLANK(D37),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>AND(ISBLANK(D38),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>AND(ISBLANK(D39),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>AND(ISBLANK(D40),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="0" priority="32">
+      <formula>AND(ISBLANK(D41),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>AND(ISBLANK(D42),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="0" priority="34">
+      <formula>AND(ISBLANK(D43),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E17" r:id="rId8"/>
-    <hyperlink ref="E18" r:id="rId9"/>
-    <hyperlink ref="E19" r:id="rId10"/>
-    <hyperlink ref="E20" r:id="rId11"/>
-    <hyperlink ref="E21" r:id="rId12"/>
-    <hyperlink ref="E22" r:id="rId13"/>
-    <hyperlink ref="E24" r:id="rId14"/>
-    <hyperlink ref="E25" r:id="rId15"/>
-    <hyperlink ref="E26" r:id="rId16"/>
-    <hyperlink ref="E27" r:id="rId17"/>
-    <hyperlink ref="E28" r:id="rId18"/>
-    <hyperlink ref="E29" r:id="rId19"/>
-    <hyperlink ref="E30" r:id="rId20"/>
-    <hyperlink ref="E31" r:id="rId21"/>
-    <hyperlink ref="E32" r:id="rId22"/>
-    <hyperlink ref="E33" r:id="rId23"/>
-    <hyperlink ref="E34" r:id="rId24"/>
-    <hyperlink ref="E35" r:id="rId25"/>
-    <hyperlink ref="E36" r:id="rId26"/>
-    <hyperlink ref="E37" r:id="rId27"/>
+    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D22" r:id="rId12"/>
+    <hyperlink ref="D23" r:id="rId13"/>
+    <hyperlink ref="D24" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D28" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D31" r:id="rId20"/>
+    <hyperlink ref="D32" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D34" r:id="rId23"/>
+    <hyperlink ref="D35" r:id="rId24"/>
+    <hyperlink ref="D36" r:id="rId25"/>
+    <hyperlink ref="D37" r:id="rId26"/>
+    <hyperlink ref="D38" r:id="rId27"/>
+    <hyperlink ref="D39" r:id="rId28"/>
+    <hyperlink ref="D40" r:id="rId29"/>
+    <hyperlink ref="D41" r:id="rId30"/>
+    <hyperlink ref="D42" r:id="rId31"/>
+    <hyperlink ref="D43" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <drawing r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -4111,72 +4212,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="269">
   <si>
     <t>Row</t>
   </si>
@@ -337,7 +337,16 @@
     <t>F1</t>
   </si>
   <si>
-    <t>~</t>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
     <t>8</t>
@@ -574,6 +583,15 @@
     <t>2.2uH</t>
   </si>
   <si>
+    <t>L_Radial_D12.0mm_P5.00mm_Fastron_11P</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Wurth%20Electronics%20PDFs/7447471022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -844,7 +862,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (0 SMD/ 57 THT)</t>
+    <t>69 (0 SMD/ 67 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -883,7 +901,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 20:36:06</t>
+    <t>2023-03-26 22:39:08</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1683,7 +1701,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1697,13 +1715,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F2" s="3">
         <v>34</v>
@@ -1711,41 +1729,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1753,13 +1771,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F6" s="3">
         <v>69</v>
@@ -2031,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2045,10 +2063,10 @@
         <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>12</v>
@@ -2056,11 +2074,11 @@
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>22</v>
+      <c r="I15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>22</v>
@@ -2071,22 +2089,22 @@
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
@@ -2095,10 +2113,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>22</v>
@@ -2109,22 +2127,22 @@
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>43</v>
@@ -2133,10 +2151,10 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
@@ -2150,19 +2168,19 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>12</v>
@@ -2171,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -2185,22 +2203,22 @@
     </row>
     <row r="19" spans="1:12" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2209,10 +2227,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -2226,19 +2244,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>18</v>
@@ -2247,10 +2265,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -2261,22 +2279,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -2285,10 +2303,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -2299,22 +2317,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>12</v>
@@ -2323,10 +2341,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -2337,22 +2355,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -2361,10 +2379,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -2375,22 +2393,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2399,10 +2417,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2413,22 +2431,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2437,10 +2455,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2449,24 +2467,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>22</v>
+        <v>146</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2474,11 +2492,11 @@
       <c r="H26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>22</v>
+      <c r="I26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2489,22 +2507,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>43</v>
@@ -2513,10 +2531,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2527,22 +2545,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
@@ -2551,10 +2569,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2565,22 +2583,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2589,10 +2607,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2603,22 +2621,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2627,10 +2645,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2641,22 +2659,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2665,10 +2683,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2679,22 +2697,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>18</v>
@@ -2703,10 +2721,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2717,22 +2735,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2741,10 +2759,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2755,22 +2773,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2779,10 +2797,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2793,22 +2811,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2817,10 +2835,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2831,22 +2849,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2855,10 +2873,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2869,22 +2887,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2893,10 +2911,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2907,22 +2925,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2931,10 +2949,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2945,22 +2963,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2969,10 +2987,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2983,22 +3001,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3007,10 +3025,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -3021,22 +3039,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3045,10 +3063,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -3059,22 +3077,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3083,10 +3101,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -3129,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3137,13 +3155,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3151,13 +3169,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3166,13 +3184,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G4" s="16">
         <f>SUM(G10:G43)</f>
@@ -3181,23 +3199,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3217,16 +3235,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3361,15 +3379,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="19">
         <f>BoardQty*1</f>
@@ -3382,16 +3403,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" s="19">
         <f>BoardQty*1</f>
@@ -3404,16 +3425,16 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3426,16 +3447,16 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19">
         <f>BoardQty*1</f>
@@ -3448,16 +3469,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E20" s="19">
         <f>BoardQty*1</f>
@@ -3470,16 +3491,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E21" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3492,16 +3513,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E22" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3514,16 +3535,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E23" s="19">
         <f>BoardQty*1</f>
@@ -3536,16 +3557,16 @@
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24" s="19">
         <f>BoardQty*1</f>
@@ -3558,16 +3579,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E25" s="19">
         <f>BoardQty*1</f>
@@ -3580,16 +3601,16 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3600,15 +3621,18 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>22</v>
+        <v>147</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3621,16 +3645,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E28" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3643,16 +3667,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="19" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E29" s="19">
         <f>BoardQty*1</f>
@@ -3665,16 +3689,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3687,16 +3711,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E31" s="19">
         <f>BoardQty*1</f>
@@ -3709,16 +3733,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E32" s="19">
         <f>BoardQty*1</f>
@@ -3731,16 +3755,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E33" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3753,16 +3777,16 @@
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E34" s="19">
         <f>BoardQty*1</f>
@@ -3775,16 +3799,16 @@
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -3797,16 +3821,16 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -3819,16 +3843,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3841,16 +3865,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -3863,16 +3887,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -3885,16 +3909,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -3907,16 +3931,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -3929,16 +3953,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -3951,16 +3975,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -3973,15 +3997,15 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="21" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="23" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4166,36 +4190,38 @@
     <hyperlink ref="D13" r:id="rId4"/>
     <hyperlink ref="D14" r:id="rId5"/>
     <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D18" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D20" r:id="rId10"/>
-    <hyperlink ref="D21" r:id="rId11"/>
-    <hyperlink ref="D22" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D24" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D28" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
-    <hyperlink ref="D31" r:id="rId20"/>
-    <hyperlink ref="D32" r:id="rId21"/>
-    <hyperlink ref="D33" r:id="rId22"/>
-    <hyperlink ref="D34" r:id="rId23"/>
-    <hyperlink ref="D35" r:id="rId24"/>
-    <hyperlink ref="D36" r:id="rId25"/>
-    <hyperlink ref="D37" r:id="rId26"/>
-    <hyperlink ref="D38" r:id="rId27"/>
-    <hyperlink ref="D39" r:id="rId28"/>
-    <hyperlink ref="D40" r:id="rId29"/>
-    <hyperlink ref="D41" r:id="rId30"/>
-    <hyperlink ref="D42" r:id="rId31"/>
-    <hyperlink ref="D43" r:id="rId32"/>
+    <hyperlink ref="D16" r:id="rId7"/>
+    <hyperlink ref="D17" r:id="rId8"/>
+    <hyperlink ref="D18" r:id="rId9"/>
+    <hyperlink ref="D19" r:id="rId10"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="D22" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D24" r:id="rId15"/>
+    <hyperlink ref="D25" r:id="rId16"/>
+    <hyperlink ref="D26" r:id="rId17"/>
+    <hyperlink ref="D27" r:id="rId18"/>
+    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D29" r:id="rId20"/>
+    <hyperlink ref="D30" r:id="rId21"/>
+    <hyperlink ref="D31" r:id="rId22"/>
+    <hyperlink ref="D32" r:id="rId23"/>
+    <hyperlink ref="D33" r:id="rId24"/>
+    <hyperlink ref="D34" r:id="rId25"/>
+    <hyperlink ref="D35" r:id="rId26"/>
+    <hyperlink ref="D36" r:id="rId27"/>
+    <hyperlink ref="D37" r:id="rId28"/>
+    <hyperlink ref="D38" r:id="rId29"/>
+    <hyperlink ref="D39" r:id="rId30"/>
+    <hyperlink ref="D40" r:id="rId31"/>
+    <hyperlink ref="D41" r:id="rId32"/>
+    <hyperlink ref="D42" r:id="rId33"/>
+    <hyperlink ref="D43" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <drawing r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -4212,72 +4238,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -901,7 +901,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 22:39:08</t>
+    <t>2023-03-26 23:14:44</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="275">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,21 @@
     <t>9</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -391,6 +406,9 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -412,9 +430,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -436,6 +451,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -457,7 +475,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -481,7 +499,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -505,7 +523,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -529,7 +547,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>J7</t>
@@ -547,7 +565,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -568,7 +586,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -592,7 +610,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -616,7 +634,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -634,7 +652,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -655,7 +673,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>R3</t>
@@ -667,7 +685,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>R1</t>
@@ -679,7 +697,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -691,7 +709,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -715,7 +733,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>SW5</t>
@@ -724,19 +742,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW2</t>
@@ -745,7 +763,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW3</t>
@@ -754,7 +772,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -778,15 +796,15 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW7</t>
   </si>
   <si>
     <t>VOL Rotary</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -805,7 +823,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Pico</t>
@@ -862,7 +880,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (0 SMD/ 67 THT)</t>
+    <t>70 (0 SMD/ 68 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -901,7 +919,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-26 23:14:44</t>
+    <t>2023-03-27 13:56:09</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1676,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1701,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1715,55 +1733,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F2" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1771,16 +1789,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F6" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2125,7 +2143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
+    <row r="17" spans="1:12" ht="60" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -2139,22 +2157,22 @@
         <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>82</v>
+      <c r="I17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
@@ -2168,57 +2186,57 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="60" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2227,10 +2245,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -2239,36 +2257,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
+    <row r="20" spans="1:12" ht="60" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -2279,22 +2297,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -2303,10 +2321,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -2317,34 +2335,34 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -2355,22 +2373,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -2379,10 +2397,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -2393,13 +2411,13 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>130</v>
@@ -2434,19 +2452,19 @@
         <v>135</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2455,10 +2473,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2469,22 +2487,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2493,10 +2511,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2507,34 +2525,34 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2545,25 +2563,25 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>19</v>
@@ -2585,20 +2603,20 @@
       <c r="A29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2607,10 +2625,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2621,22 +2639,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2645,10 +2663,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2659,22 +2677,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2683,10 +2701,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2697,34 +2715,34 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2735,13 +2753,13 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>186</v>
@@ -2750,19 +2768,19 @@
         <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2773,13 +2791,13 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>192</v>
@@ -2788,7 +2806,7 @@
         <v>193</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2797,10 +2815,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2811,22 +2829,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2835,10 +2853,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2849,22 +2867,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2873,10 +2891,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2887,22 +2905,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2911,10 +2929,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2925,22 +2943,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2949,10 +2967,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2963,22 +2981,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2987,10 +3005,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -3001,13 +3019,13 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>213</v>
@@ -3016,7 +3034,7 @@
         <v>214</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3025,10 +3043,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -3039,22 +3057,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3063,10 +3081,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -3077,10 +3095,10 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>222</v>
@@ -3110,6 +3128,44 @@
         <v>22</v>
       </c>
       <c r="L42" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3125,7 +3181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
@@ -3147,7 +3203,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3155,13 +3211,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3169,13 +3225,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3184,38 +3240,38 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G4" s="16">
-        <f>SUM(G10:G43)</f>
+        <f>SUM(G10:G44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3235,16 +3291,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3423,22 +3479,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="E18" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G18" s="20">
         <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
@@ -3447,20 +3500,20 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G19" s="20">
         <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
@@ -3469,16 +3522,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="E20" s="19">
         <f>BoardQty*1</f>
@@ -3489,22 +3542,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="E21" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G21" s="20">
         <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
@@ -3513,16 +3566,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="E22" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3533,22 +3586,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="E23" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G23" s="20">
         <f>IF(AND(ISNUMBER(E23),ISNUMBER(F23)),E23*F23,"")</f>
@@ -3557,16 +3610,16 @@
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="E24" s="19">
         <f>BoardQty*1</f>
@@ -3577,7 +3630,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>130</v>
       </c>
@@ -3599,18 +3652,18 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3623,16 +3676,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3645,32 +3698,32 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="E28" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G28" s="20">
         <f>IF(AND(ISNUMBER(E28),ISNUMBER(F28)),E28*F28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>161</v>
@@ -3679,8 +3732,8 @@
         <v>162</v>
       </c>
       <c r="E29" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G29" s="20">
         <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
@@ -3689,16 +3742,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3711,16 +3764,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E31" s="19">
         <f>BoardQty*1</f>
@@ -3733,16 +3786,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E32" s="19">
         <f>BoardQty*1</f>
@@ -3755,27 +3808,27 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E33" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G33" s="20">
         <f>IF(AND(ISNUMBER(E33),ISNUMBER(F33)),E33*F33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
         <v>186</v>
       </c>
@@ -3783,14 +3836,14 @@
         <v>187</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E34" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G34" s="20">
         <f>IF(AND(ISNUMBER(E34),ISNUMBER(F34)),E34*F34,"")</f>
@@ -3805,10 +3858,10 @@
         <v>193</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -3821,16 +3874,16 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -3843,16 +3896,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3865,16 +3918,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -3887,16 +3940,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -3909,16 +3962,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -3937,10 +3990,10 @@
         <v>214</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -3953,16 +4006,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -3995,17 +4048,39 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>253</v>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="20">
+        <f>IF(AND(ISNUMBER(E44),ISNUMBER(F44)),E44*F44,"")</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="23" t="s">
-        <v>254</v>
+      <c r="A47" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="23" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4183,6 +4258,11 @@
       <formula>AND(ISBLANK(D43),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="0" priority="35">
+      <formula>AND(ISBLANK(D44),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
@@ -4192,32 +4272,32 @@
     <hyperlink ref="D15" r:id="rId6"/>
     <hyperlink ref="D16" r:id="rId7"/>
     <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D19" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D25" r:id="rId16"/>
-    <hyperlink ref="D26" r:id="rId17"/>
-    <hyperlink ref="D27" r:id="rId18"/>
-    <hyperlink ref="D28" r:id="rId19"/>
-    <hyperlink ref="D29" r:id="rId20"/>
-    <hyperlink ref="D30" r:id="rId21"/>
-    <hyperlink ref="D31" r:id="rId22"/>
-    <hyperlink ref="D32" r:id="rId23"/>
-    <hyperlink ref="D33" r:id="rId24"/>
-    <hyperlink ref="D34" r:id="rId25"/>
-    <hyperlink ref="D35" r:id="rId26"/>
-    <hyperlink ref="D36" r:id="rId27"/>
-    <hyperlink ref="D37" r:id="rId28"/>
-    <hyperlink ref="D38" r:id="rId29"/>
-    <hyperlink ref="D39" r:id="rId30"/>
-    <hyperlink ref="D40" r:id="rId31"/>
-    <hyperlink ref="D41" r:id="rId32"/>
-    <hyperlink ref="D42" r:id="rId33"/>
-    <hyperlink ref="D43" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D22" r:id="rId12"/>
+    <hyperlink ref="D23" r:id="rId13"/>
+    <hyperlink ref="D24" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D27" r:id="rId17"/>
+    <hyperlink ref="D28" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D30" r:id="rId20"/>
+    <hyperlink ref="D31" r:id="rId21"/>
+    <hyperlink ref="D32" r:id="rId22"/>
+    <hyperlink ref="D33" r:id="rId23"/>
+    <hyperlink ref="D34" r:id="rId24"/>
+    <hyperlink ref="D35" r:id="rId25"/>
+    <hyperlink ref="D36" r:id="rId26"/>
+    <hyperlink ref="D37" r:id="rId27"/>
+    <hyperlink ref="D38" r:id="rId28"/>
+    <hyperlink ref="D39" r:id="rId29"/>
+    <hyperlink ref="D40" r:id="rId30"/>
+    <hyperlink ref="D41" r:id="rId31"/>
+    <hyperlink ref="D42" r:id="rId32"/>
+    <hyperlink ref="D43" r:id="rId33"/>
+    <hyperlink ref="D44" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId35"/>
@@ -4238,72 +4318,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -919,7 +919,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 13:56:09</t>
+    <t>2023-03-27 14:15:06</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -919,7 +919,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 14:15:06</t>
+    <t>2023-03-27 14:31:33</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="275">
   <si>
     <t>Row</t>
   </si>
@@ -352,22 +352,25 @@
     <t>8</t>
   </si>
   <si>
-    <t>DC Barrel Jack with a mounting pin</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J13</t>
   </si>
   <si>
     <t>Barrel_Jack_MountingPin</t>
   </si>
   <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/PJ-063AH/2161208</t>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
     <t>9</t>
@@ -385,9 +388,6 @@
     <t>PinHeader_1x02_P2.54mm_Horizontal</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 14:31:33</t>
+    <t>2023-03-27 15:02:34</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1705,7 +1705,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
@@ -2119,10 +2119,10 @@
         <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
@@ -2130,11 +2130,11 @@
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>74</v>
+      <c r="I16" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>22</v>
@@ -2145,22 +2145,22 @@
     </row>
     <row r="17" spans="1:12" ht="60" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -2169,7 +2169,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>22</v>
@@ -3462,12 +3462,9 @@
         <v>72</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="19">
@@ -3481,13 +3478,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>78</v>
-      </c>
       <c r="C18" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" s="19">
         <f>BoardQty*1</f>
@@ -4271,37 +4268,36 @@
     <hyperlink ref="D14" r:id="rId5"/>
     <hyperlink ref="D15" r:id="rId6"/>
     <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D20" r:id="rId10"/>
-    <hyperlink ref="D21" r:id="rId11"/>
-    <hyperlink ref="D22" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D24" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D27" r:id="rId17"/>
-    <hyperlink ref="D28" r:id="rId18"/>
-    <hyperlink ref="D29" r:id="rId19"/>
-    <hyperlink ref="D30" r:id="rId20"/>
-    <hyperlink ref="D31" r:id="rId21"/>
-    <hyperlink ref="D32" r:id="rId22"/>
-    <hyperlink ref="D33" r:id="rId23"/>
-    <hyperlink ref="D34" r:id="rId24"/>
-    <hyperlink ref="D35" r:id="rId25"/>
-    <hyperlink ref="D36" r:id="rId26"/>
-    <hyperlink ref="D37" r:id="rId27"/>
-    <hyperlink ref="D38" r:id="rId28"/>
-    <hyperlink ref="D39" r:id="rId29"/>
-    <hyperlink ref="D40" r:id="rId30"/>
-    <hyperlink ref="D41" r:id="rId31"/>
-    <hyperlink ref="D42" r:id="rId32"/>
-    <hyperlink ref="D43" r:id="rId33"/>
-    <hyperlink ref="D44" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="D21" r:id="rId10"/>
+    <hyperlink ref="D22" r:id="rId11"/>
+    <hyperlink ref="D23" r:id="rId12"/>
+    <hyperlink ref="D24" r:id="rId13"/>
+    <hyperlink ref="D25" r:id="rId14"/>
+    <hyperlink ref="D26" r:id="rId15"/>
+    <hyperlink ref="D27" r:id="rId16"/>
+    <hyperlink ref="D28" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D31" r:id="rId20"/>
+    <hyperlink ref="D32" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D34" r:id="rId23"/>
+    <hyperlink ref="D35" r:id="rId24"/>
+    <hyperlink ref="D36" r:id="rId25"/>
+    <hyperlink ref="D37" r:id="rId26"/>
+    <hyperlink ref="D38" r:id="rId27"/>
+    <hyperlink ref="D39" r:id="rId28"/>
+    <hyperlink ref="D40" r:id="rId29"/>
+    <hyperlink ref="D41" r:id="rId30"/>
+    <hyperlink ref="D42" r:id="rId31"/>
+    <hyperlink ref="D43" r:id="rId32"/>
+    <hyperlink ref="D44" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <drawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
 

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -919,7 +919,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 15:02:34</t>
+    <t>2023-03-27 15:08:04</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="276">
   <si>
     <t>Row</t>
   </si>
@@ -367,27 +367,30 @@
     <t>BarrelJack_Wuerth_6941xx301002</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -919,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 15:08:04</t>
+    <t>2023-03-27 15:37:32</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1719,7 +1722,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1733,13 +1736,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1747,41 +1750,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1789,13 +1792,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -2130,7 +2133,7 @@
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -2169,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>22</v>
@@ -2186,19 +2189,19 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>43</v>
@@ -2207,10 +2210,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -2221,22 +2224,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2245,10 +2248,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -2262,19 +2265,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -2283,10 +2286,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -2297,22 +2300,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -2321,10 +2324,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -2335,22 +2338,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -2359,10 +2362,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -2373,22 +2376,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -2397,10 +2400,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -2411,22 +2414,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2435,10 +2438,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2449,22 +2452,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2473,10 +2476,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2487,22 +2490,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2511,10 +2514,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2525,22 +2528,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2549,10 +2552,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2563,22 +2566,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>43</v>
@@ -2587,10 +2590,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2601,22 +2604,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2625,10 +2628,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2639,22 +2642,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2663,10 +2666,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2677,22 +2680,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2701,10 +2704,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2715,22 +2718,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2739,10 +2742,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2753,22 +2756,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2777,10 +2780,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2791,22 +2794,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2815,10 +2818,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2829,22 +2832,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2853,10 +2856,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2867,22 +2870,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2891,10 +2894,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2905,22 +2908,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2929,10 +2932,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2943,22 +2946,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2967,10 +2970,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2981,22 +2984,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3005,10 +3008,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -3019,22 +3022,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3043,10 +3046,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -3057,22 +3060,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3081,10 +3084,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -3095,22 +3098,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3119,10 +3122,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -3133,22 +3136,22 @@
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3157,10 +3160,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -3203,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3211,13 +3214,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3225,13 +3228,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3240,13 +3243,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G4" s="16">
         <f>SUM(G10:G44)</f>
@@ -3255,23 +3258,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3291,16 +3294,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3457,7 +3460,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>72</v>
       </c>
@@ -3466,6 +3469,9 @@
       </c>
       <c r="C17" s="19" t="s">
         <v>74</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="E17" s="19">
         <f>BoardQty*1</f>
@@ -3497,16 +3503,16 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3519,16 +3525,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="19">
         <f>BoardQty*1</f>
@@ -3541,16 +3547,16 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="19">
         <f>BoardQty*1</f>
@@ -3563,16 +3569,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3585,16 +3591,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3607,16 +3613,16 @@
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="19">
         <f>BoardQty*1</f>
@@ -3629,16 +3635,16 @@
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E25" s="19">
         <f>BoardQty*1</f>
@@ -3651,16 +3657,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3673,16 +3679,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="C27" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3695,16 +3701,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28" s="19">
         <f>BoardQty*1</f>
@@ -3717,16 +3723,16 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3739,16 +3745,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="C30" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3761,16 +3767,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E31" s="19">
         <f>BoardQty*1</f>
@@ -3783,16 +3789,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E32" s="19">
         <f>BoardQty*1</f>
@@ -3805,16 +3811,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E33" s="19">
         <f>BoardQty*1</f>
@@ -3827,16 +3833,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E34" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3849,16 +3855,16 @@
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -3871,16 +3877,16 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -3893,16 +3899,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3915,16 +3921,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -3937,16 +3943,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -3959,16 +3965,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -3981,16 +3987,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4003,16 +4009,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4025,16 +4031,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="C43" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4047,16 +4053,16 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>228</v>
-      </c>
       <c r="C44" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4069,15 +4075,15 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4268,36 +4274,37 @@
     <hyperlink ref="D14" r:id="rId5"/>
     <hyperlink ref="D15" r:id="rId6"/>
     <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D19" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D22" r:id="rId11"/>
-    <hyperlink ref="D23" r:id="rId12"/>
-    <hyperlink ref="D24" r:id="rId13"/>
-    <hyperlink ref="D25" r:id="rId14"/>
-    <hyperlink ref="D26" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D28" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
-    <hyperlink ref="D31" r:id="rId20"/>
-    <hyperlink ref="D32" r:id="rId21"/>
-    <hyperlink ref="D33" r:id="rId22"/>
-    <hyperlink ref="D34" r:id="rId23"/>
-    <hyperlink ref="D35" r:id="rId24"/>
-    <hyperlink ref="D36" r:id="rId25"/>
-    <hyperlink ref="D37" r:id="rId26"/>
-    <hyperlink ref="D38" r:id="rId27"/>
-    <hyperlink ref="D39" r:id="rId28"/>
-    <hyperlink ref="D40" r:id="rId29"/>
-    <hyperlink ref="D41" r:id="rId30"/>
-    <hyperlink ref="D42" r:id="rId31"/>
-    <hyperlink ref="D43" r:id="rId32"/>
-    <hyperlink ref="D44" r:id="rId33"/>
+    <hyperlink ref="D17" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D22" r:id="rId12"/>
+    <hyperlink ref="D23" r:id="rId13"/>
+    <hyperlink ref="D24" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D27" r:id="rId17"/>
+    <hyperlink ref="D28" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D30" r:id="rId20"/>
+    <hyperlink ref="D31" r:id="rId21"/>
+    <hyperlink ref="D32" r:id="rId22"/>
+    <hyperlink ref="D33" r:id="rId23"/>
+    <hyperlink ref="D34" r:id="rId24"/>
+    <hyperlink ref="D35" r:id="rId25"/>
+    <hyperlink ref="D36" r:id="rId26"/>
+    <hyperlink ref="D37" r:id="rId27"/>
+    <hyperlink ref="D38" r:id="rId28"/>
+    <hyperlink ref="D39" r:id="rId29"/>
+    <hyperlink ref="D40" r:id="rId30"/>
+    <hyperlink ref="D41" r:id="rId31"/>
+    <hyperlink ref="D42" r:id="rId32"/>
+    <hyperlink ref="D43" r:id="rId33"/>
+    <hyperlink ref="D44" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <drawing r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -4314,72 +4321,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 15:37:32</t>
+    <t>2023-03-27 15:39:50</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -235,7 +235,7 @@
     <t>C16 C17</t>
   </si>
   <si>
-    <t>4.7uF 50V</t>
+    <t>4.7uF</t>
   </si>
   <si>
     <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
@@ -625,7 +625,7 @@
     <t>L1 L2 L3 L4 L5</t>
   </si>
   <si>
-    <t>1K@100MHz</t>
+    <t>103_100MHz</t>
   </si>
   <si>
     <t>L_Axial_L6.6mm_D2.7mm_P10.16mm_Horizontal_Vishay_IM-2</t>
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 15:39:50</t>
+    <t>2023-03-27 17:01:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 17:01:24</t>
+    <t>2023-03-27 17:36:35</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 17:36:35</t>
+    <t>2023-03-27 17:41:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 17:41:24</t>
+    <t>2023-03-27 17:46:06</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 17:46:06</t>
+    <t>2023-03-27 17:51:30</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 17:51:30</t>
+    <t>2023-03-27 18:05:19</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 18:05:19</t>
+    <t>2023-03-27 18:39:50</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 18:39:50</t>
+    <t>2023-03-27 18:45:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -922,7 +922,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 18:45:24</t>
+    <t>2023-03-27 18:59:40</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="277">
   <si>
     <t>Row</t>
   </si>
@@ -388,7 +388,10 @@
     <t>PinHeader_1x02_P2.54mm_Horizontal</t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -922,7 +925,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 18:59:40</t>
+    <t>2023-03-27 19:26:08</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1722,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1736,13 +1739,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1750,41 +1753,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1792,13 +1795,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -2171,11 +2174,11 @@
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>22</v>
+      <c r="J17" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
@@ -2189,19 +2192,19 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>43</v>
@@ -2210,10 +2213,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -2224,22 +2227,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2248,10 +2251,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -2265,19 +2268,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -2286,10 +2289,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -2300,22 +2303,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -2324,10 +2327,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -2338,22 +2341,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -2362,10 +2365,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -2376,22 +2379,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -2400,10 +2403,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -2414,22 +2417,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2438,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2452,22 +2455,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2476,10 +2479,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2490,22 +2493,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2514,10 +2517,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2528,22 +2531,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2552,10 +2555,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2566,22 +2569,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>43</v>
@@ -2590,10 +2593,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2604,22 +2607,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2628,10 +2631,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2642,22 +2645,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2666,10 +2669,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2680,22 +2683,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2704,10 +2707,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2718,22 +2721,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2742,10 +2745,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2756,22 +2759,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2780,10 +2783,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2794,22 +2797,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2818,10 +2821,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2832,22 +2835,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2856,10 +2859,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2870,22 +2873,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2894,10 +2897,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2908,22 +2911,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2932,10 +2935,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2946,22 +2949,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2970,10 +2973,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2984,22 +2987,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3008,10 +3011,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -3022,22 +3025,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3046,10 +3049,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -3060,22 +3063,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3084,10 +3087,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -3098,22 +3101,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3122,10 +3125,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -3136,22 +3139,22 @@
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3160,10 +3163,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -3206,7 +3209,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3214,13 +3217,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3228,13 +3231,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3243,13 +3246,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G4" s="16">
         <f>SUM(G10:G44)</f>
@@ -3258,23 +3261,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3294,16 +3297,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3482,7 +3485,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>80</v>
       </c>
@@ -3491,6 +3494,9 @@
       </c>
       <c r="C18" s="19" t="s">
         <v>81</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="19">
         <f>BoardQty*1</f>
@@ -3503,16 +3509,16 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3525,16 +3531,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" s="19">
         <f>BoardQty*1</f>
@@ -3547,16 +3553,16 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" s="19">
         <f>BoardQty*1</f>
@@ -3569,16 +3575,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3591,16 +3597,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3613,16 +3619,16 @@
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" s="19">
         <f>BoardQty*1</f>
@@ -3635,16 +3641,16 @@
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="19">
         <f>BoardQty*1</f>
@@ -3657,16 +3663,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3679,16 +3685,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="C27" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3701,16 +3707,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E28" s="19">
         <f>BoardQty*1</f>
@@ -3723,16 +3729,16 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E29" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3745,16 +3751,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>166</v>
-      </c>
       <c r="C30" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3767,16 +3773,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E31" s="19">
         <f>BoardQty*1</f>
@@ -3789,16 +3795,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E32" s="19">
         <f>BoardQty*1</f>
@@ -3811,16 +3817,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E33" s="19">
         <f>BoardQty*1</f>
@@ -3833,16 +3839,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E34" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3855,16 +3861,16 @@
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -3877,16 +3883,16 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -3899,16 +3905,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3921,16 +3927,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -3943,16 +3949,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -3965,16 +3971,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -3987,16 +3993,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4009,16 +4015,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4031,16 +4037,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>223</v>
-      </c>
       <c r="C43" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4053,16 +4059,16 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="C44" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4075,15 +4081,15 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4275,36 +4281,37 @@
     <hyperlink ref="D15" r:id="rId6"/>
     <hyperlink ref="D16" r:id="rId7"/>
     <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D20" r:id="rId10"/>
-    <hyperlink ref="D21" r:id="rId11"/>
-    <hyperlink ref="D22" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D24" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D27" r:id="rId17"/>
-    <hyperlink ref="D28" r:id="rId18"/>
-    <hyperlink ref="D29" r:id="rId19"/>
-    <hyperlink ref="D30" r:id="rId20"/>
-    <hyperlink ref="D31" r:id="rId21"/>
-    <hyperlink ref="D32" r:id="rId22"/>
-    <hyperlink ref="D33" r:id="rId23"/>
-    <hyperlink ref="D34" r:id="rId24"/>
-    <hyperlink ref="D35" r:id="rId25"/>
-    <hyperlink ref="D36" r:id="rId26"/>
-    <hyperlink ref="D37" r:id="rId27"/>
-    <hyperlink ref="D38" r:id="rId28"/>
-    <hyperlink ref="D39" r:id="rId29"/>
-    <hyperlink ref="D40" r:id="rId30"/>
-    <hyperlink ref="D41" r:id="rId31"/>
-    <hyperlink ref="D42" r:id="rId32"/>
-    <hyperlink ref="D43" r:id="rId33"/>
-    <hyperlink ref="D44" r:id="rId34"/>
+    <hyperlink ref="D18" r:id="rId9"/>
+    <hyperlink ref="D19" r:id="rId10"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="D22" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D24" r:id="rId15"/>
+    <hyperlink ref="D25" r:id="rId16"/>
+    <hyperlink ref="D26" r:id="rId17"/>
+    <hyperlink ref="D27" r:id="rId18"/>
+    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D29" r:id="rId20"/>
+    <hyperlink ref="D30" r:id="rId21"/>
+    <hyperlink ref="D31" r:id="rId22"/>
+    <hyperlink ref="D32" r:id="rId23"/>
+    <hyperlink ref="D33" r:id="rId24"/>
+    <hyperlink ref="D34" r:id="rId25"/>
+    <hyperlink ref="D35" r:id="rId26"/>
+    <hyperlink ref="D36" r:id="rId27"/>
+    <hyperlink ref="D37" r:id="rId28"/>
+    <hyperlink ref="D38" r:id="rId29"/>
+    <hyperlink ref="D39" r:id="rId30"/>
+    <hyperlink ref="D40" r:id="rId31"/>
+    <hyperlink ref="D41" r:id="rId32"/>
+    <hyperlink ref="D42" r:id="rId33"/>
+    <hyperlink ref="D43" r:id="rId34"/>
+    <hyperlink ref="D44" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <drawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -4321,72 +4328,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -925,7 +925,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 19:26:08</t>
+    <t>2023-03-27 19:25:58</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -925,7 +925,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 19:25:58</t>
+    <t>2023-03-27 19:40:07</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -865,7 +865,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>
@@ -925,7 +925,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 19:40:07</t>
+    <t>2023-03-27 20:52:32</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -865,7 +865,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -925,7 +925,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 20:52:32</t>
+    <t>2023-03-27 21:24:36</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -925,7 +925,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 21:24:36</t>
+    <t>2023-03-27 21:35:43</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="278">
   <si>
     <t>Row</t>
   </si>
@@ -409,6 +409,9 @@
     <t>Jack_6.35mm_Horizontal</t>
   </si>
   <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
@@ -499,7 +502,7 @@
     <t>CP-2350</t>
   </si>
   <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
@@ -925,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-27 21:35:43</t>
+    <t>2023-03-28 14:07:45</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1725,7 +1728,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1739,13 +1742,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1753,41 +1756,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1795,13 +1798,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -2216,7 +2219,7 @@
         <v>89</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -2227,22 +2230,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2251,10 +2254,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -2268,19 +2271,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -2289,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -2303,22 +2306,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -2327,10 +2330,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -2341,22 +2344,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -2365,10 +2368,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -2379,22 +2382,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -2403,10 +2406,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -2417,22 +2420,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2441,10 +2444,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2455,22 +2458,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2479,10 +2482,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2493,22 +2496,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2517,10 +2520,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2531,22 +2534,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2555,10 +2558,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2569,22 +2572,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>43</v>
@@ -2593,10 +2596,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2607,22 +2610,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2631,10 +2634,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2645,22 +2648,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2669,10 +2672,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2683,22 +2686,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2707,10 +2710,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2721,22 +2724,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2745,10 +2748,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2759,22 +2762,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2783,10 +2786,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2797,22 +2800,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2821,10 +2824,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2835,22 +2838,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2859,10 +2862,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2873,22 +2876,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2897,10 +2900,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2911,22 +2914,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2935,10 +2938,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2949,22 +2952,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2973,10 +2976,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2987,22 +2990,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3011,10 +3014,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -3025,22 +3028,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3049,10 +3052,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -3063,22 +3066,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3087,10 +3090,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -3101,22 +3104,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3125,10 +3128,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -3139,22 +3142,22 @@
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3163,10 +3166,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -3209,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3217,13 +3220,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3231,13 +3234,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3246,13 +3249,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G4" s="16">
         <f>SUM(G10:G44)</f>
@@ -3261,23 +3264,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3297,16 +3300,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3507,7 +3510,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="19" t="s">
         <v>86</v>
       </c>
@@ -3531,16 +3534,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="19">
         <f>BoardQty*1</f>
@@ -3553,16 +3556,16 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="19">
         <f>BoardQty*1</f>
@@ -3575,16 +3578,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3597,16 +3600,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3619,16 +3622,16 @@
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24" s="19">
         <f>BoardQty*1</f>
@@ -3641,16 +3644,16 @@
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E25" s="19">
         <f>BoardQty*1</f>
@@ -3663,16 +3666,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3685,16 +3688,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="C27" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3707,16 +3710,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" s="19">
         <f>BoardQty*1</f>
@@ -3729,16 +3732,16 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E29" s="19">
         <f>CEILING(BoardQty*5,1)</f>
@@ -3751,16 +3754,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="C30" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3773,16 +3776,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E31" s="19">
         <f>BoardQty*1</f>
@@ -3795,16 +3798,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E32" s="19">
         <f>BoardQty*1</f>
@@ -3817,16 +3820,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E33" s="19">
         <f>BoardQty*1</f>
@@ -3839,16 +3842,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E34" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3861,16 +3864,16 @@
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -3883,16 +3886,16 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -3905,16 +3908,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3927,16 +3930,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -3949,16 +3952,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -3971,16 +3974,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -3993,16 +3996,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4015,16 +4018,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4037,16 +4040,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="C43" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4059,16 +4062,16 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>230</v>
-      </c>
       <c r="C44" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4081,15 +4084,15 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4328,72 +4331,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-28 14:07:45</t>
+    <t>2023-03-28 18:46:14</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-03-28 18:46:14</t>
+    <t>2023-04-04 14:24:27</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-04 14:24:27</t>
+    <t>2023-04-04 14:51:16</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -868,7 +868,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Date:</t>
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-04 14:51:16</t>
+    <t>2023-04-04 15:15:35</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-04 15:15:35</t>
+    <t>2023-04-04 15:17:03</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-04 15:17:03</t>
+    <t>2023-04-04 15:20:36</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-04 15:20:36</t>
+    <t>2023-04-04 18:10:55</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-04 18:10:55</t>
+    <t>2023-04-05 11:14:09</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-05 11:14:09</t>
+    <t>2023-04-05 21:32:25</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-05 21:32:25</t>
+    <t>2023-04-05 23:05:14</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-05 23:05:14</t>
+    <t>2023-04-06 00:00:53</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-06 00:00:53</t>
+    <t>2023-04-06 11:14:31</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-06 11:14:31</t>
+    <t>2023-04-06 11:29:01</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="285">
   <si>
     <t>Row</t>
   </si>
@@ -169,15 +169,15 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Sim.Device</t>
+  </si>
+  <si>
+    <t>Sim.Pins</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Sim.Device</t>
-  </si>
-  <si>
-    <t>Sim.Pins</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/kemet/C330C102JHR5TA/1465599</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
   </si>
   <si>
@@ -289,18 +289,39 @@
     <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/en/products/detail/onsemi/1N4148/458603</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>1=K 2=A</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
+    <t>100V 3A General Purpose Rectifier Diode, DO-201AD</t>
+  </si>
+  <si>
+    <t>1N5401</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D_DO-201AD_P15.24mm_Horizontal</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88516/1n5400.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/1N5401G/1485525</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
   </si>
   <si>
@@ -325,7 +346,7 @@
     <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12986/5673799</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -343,13 +364,13 @@
     <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
   </si>
   <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>DC Barrel Jack with an internal switch</t>
@@ -373,9 +394,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -394,6 +412,9 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -415,9 +436,6 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -439,6 +457,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -460,7 +481,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -484,7 +505,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -508,7 +529,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -532,7 +553,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -556,7 +577,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>J7</t>
@@ -574,7 +595,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -595,7 +616,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -619,7 +640,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -643,7 +664,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -661,7 +682,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -682,7 +703,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>R3</t>
@@ -694,7 +715,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R1</t>
@@ -706,7 +727,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -718,7 +739,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -742,7 +763,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW5</t>
@@ -751,19 +772,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW2</t>
@@ -772,7 +793,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW3</t>
@@ -781,9 +802,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -805,13 +823,16 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW7</t>
   </si>
   <si>
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -832,7 +853,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Pico</t>
@@ -889,7 +910,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>70 (0 SMD/ 68 THT)</t>
+    <t>71 (0 SMD/ 69 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -928,7 +949,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-06 11:29:01</t>
+    <t>2023-04-07 09:51:47</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1703,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1721,14 +1742,14 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1742,55 +1763,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F2" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1798,16 +1819,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F6" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1876,13 +1897,13 @@
       <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1914,14 +1935,14 @@
       <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
@@ -1952,14 +1973,14 @@
       <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
@@ -1990,14 +2011,14 @@
       <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
@@ -2052,86 +2073,86 @@
         <v>55</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
@@ -2140,33 +2161,33 @@
         <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="60" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>81</v>
@@ -2180,19 +2201,19 @@
       <c r="I17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="60" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>84</v>
@@ -2204,86 +2225,86 @@
         <v>86</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -2292,74 +2313,74 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="60" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -2368,74 +2389,74 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2444,36 +2465,36 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2482,33 +2503,33 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>148</v>
@@ -2522,14 +2543,14 @@
       <c r="I26" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
@@ -2546,10 +2567,10 @@
         <v>154</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2558,62 +2579,62 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>168</v>
@@ -2622,36 +2643,36 @@
         <v>169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="6" t="s">
         <v>172</v>
       </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="10" t="s">
         <v>174</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>175</v>
@@ -2660,7 +2681,7 @@
         <v>176</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>177</v>
@@ -2674,14 +2695,14 @@
       <c r="I30" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
@@ -2689,19 +2710,19 @@
         <v>180</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2710,36 +2731,36 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2748,112 +2769,112 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="C35" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2862,36 +2883,36 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2900,36 +2921,36 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2938,36 +2959,36 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2976,36 +2997,36 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3014,36 +3035,36 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3052,36 +3073,36 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3090,36 +3111,36 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3128,36 +3149,36 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>22</v>
+      <c r="B43" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3166,16 +3187,54 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J43" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="J43" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3249,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
@@ -3212,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3220,13 +3279,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3234,13 +3293,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3249,38 +3308,38 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G4" s="16">
-        <f>SUM(G10:G44)</f>
+        <f>SUM(G10:G45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3300,16 +3359,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3422,22 +3481,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="19">
-        <f>CEILING(BoardQty*10,1)</f>
-        <v>10</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G15" s="20">
         <f>IF(AND(ISNUMBER(E15),ISNUMBER(F15)),E15*F15,"")</f>
@@ -3446,38 +3505,38 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>67</v>
-      </c>
       <c r="E16" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*10,1)</f>
+        <v>10</v>
       </c>
       <c r="G16" s="20">
         <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="19">
         <f>BoardQty*1</f>
@@ -3490,10 +3549,10 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>81</v>
@@ -3510,44 +3569,44 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="E19" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G19" s="20">
         <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>97</v>
-      </c>
       <c r="E20" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G20" s="20">
         <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
@@ -3556,16 +3615,16 @@
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="E21" s="19">
         <f>BoardQty*1</f>
@@ -3576,22 +3635,22 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="E22" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G22" s="20">
         <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
@@ -3600,16 +3659,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3620,22 +3679,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>128</v>
-      </c>
       <c r="E24" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G24" s="20">
         <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
@@ -3644,16 +3703,16 @@
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="E25" s="19">
         <f>BoardQty*1</f>
@@ -3664,18 +3723,18 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3686,12 +3745,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>148</v>
@@ -3713,13 +3772,13 @@
         <v>154</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="E28" s="19">
         <f>BoardQty*1</f>
@@ -3732,42 +3791,42 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="E29" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G29" s="20">
         <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E30" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G30" s="20">
         <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
@@ -3779,7 +3838,7 @@
         <v>176</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>177</v>
@@ -3798,16 +3857,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E32" s="19">
         <f>BoardQty*1</f>
@@ -3820,16 +3879,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="E33" s="19">
         <f>BoardQty*1</f>
@@ -3842,42 +3901,42 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E34" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G34" s="20">
         <f>IF(AND(ISNUMBER(E34),ISNUMBER(F34)),E34*F34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E35" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G35" s="20">
         <f>IF(AND(ISNUMBER(E35),ISNUMBER(F35)),E35*F35,"")</f>
@@ -3886,16 +3945,16 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -3908,16 +3967,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="D37" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3930,16 +3989,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -3952,16 +4011,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -3974,16 +4033,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -3996,16 +4055,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4018,16 +4077,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4040,16 +4099,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4062,16 +4121,16 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="C44" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4082,17 +4141,39 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>262</v>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="A45" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="20">
+        <f>IF(AND(ISNUMBER(E45),ISNUMBER(F45)),E45*F45,"")</f>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="23" t="s">
-        <v>263</v>
+      <c r="A48" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="23" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4275,6 +4356,11 @@
       <formula>AND(ISBLANK(D44),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="0" priority="36">
+      <formula>AND(ISBLANK(D45),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
@@ -4311,10 +4397,11 @@
     <hyperlink ref="D42" r:id="rId33"/>
     <hyperlink ref="D43" r:id="rId34"/>
     <hyperlink ref="D44" r:id="rId35"/>
+    <hyperlink ref="D45" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
+  <drawing r:id="rId37"/>
+  <legacyDrawing r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -4331,72 +4418,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -340,10 +340,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12986/5673799</t>
+    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
   </si>
   <si>
     <t>8</t>
@@ -949,7 +949,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-07 09:51:47</t>
+    <t>2023-04-07 10:55:49</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="292">
   <si>
     <t>Row</t>
   </si>
@@ -322,6 +322,27 @@
     <t>7</t>
   </si>
   <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D_DO-41_SOD81_P10.16mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5817-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/onsemi/1N5817RLG/807254</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
   </si>
   <si>
@@ -346,7 +367,7 @@
     <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -370,9 +391,6 @@
     <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -394,6 +412,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -412,9 +433,6 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -436,6 +454,9 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -457,7 +478,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -481,7 +502,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -505,7 +526,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -529,7 +550,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -553,7 +574,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -577,7 +598,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>J7</t>
@@ -595,7 +616,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -616,7 +637,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -640,7 +661,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -664,7 +685,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -682,7 +703,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -703,7 +724,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R3</t>
@@ -715,7 +736,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R1</t>
@@ -727,7 +748,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -739,7 +760,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -763,7 +784,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW5</t>
@@ -772,19 +793,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW2</t>
@@ -793,15 +814,15 @@
     <t>E</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -823,7 +844,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>SW7</t>
@@ -832,7 +853,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -853,7 +874,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Pico</t>
@@ -910,7 +931,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>71 (0 SMD/ 69 THT)</t>
+    <t>72 (0 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -949,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-07 10:55:49</t>
+    <t>2023-04-07 12:34:16</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
@@ -1724,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1749,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1763,55 +1784,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F2" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1819,16 +1840,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2111,19 +2132,19 @@
         <v>62</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>21</v>
@@ -2132,65 +2153,65 @@
         <v>21</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -2199,33 +2220,33 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="60" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>87</v>
@@ -2249,7 +2270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
+    <row r="19" spans="1:12" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -2263,28 +2284,28 @@
         <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
@@ -2292,57 +2313,57 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="60" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>12</v>
@@ -2351,74 +2372,74 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="60" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>18</v>
@@ -2427,74 +2448,74 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2503,36 +2524,36 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="C26" s="11" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2541,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
@@ -2550,24 +2571,24 @@
         <v>21</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>155</v>
@@ -2605,10 +2626,10 @@
         <v>161</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
@@ -2617,62 +2638,62 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>175</v>
@@ -2681,19 +2702,19 @@
         <v>176</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>21</v>
@@ -2702,15 +2723,15 @@
         <v>21</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="6" t="s">
         <v>181</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>182</v>
@@ -2719,7 +2740,7 @@
         <v>183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>184</v>
@@ -2748,19 +2769,19 @@
         <v>187</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2769,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>21</v>
@@ -2778,27 +2799,27 @@
         <v>21</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2807,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>21</v>
@@ -2816,36 +2837,36 @@
         <v>21</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>21</v>
@@ -2854,65 +2875,65 @@
         <v>21</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="C36" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2921,7 +2942,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>21</v>
@@ -2930,27 +2951,27 @@
         <v>21</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2959,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>21</v>
@@ -2968,27 +2989,27 @@
         <v>21</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2997,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>21</v>
@@ -3006,27 +3027,27 @@
         <v>21</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3035,7 +3056,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>21</v>
@@ -3044,27 +3065,27 @@
         <v>21</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3073,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>21</v>
@@ -3082,27 +3103,27 @@
         <v>21</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3111,7 +3132,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>21</v>
@@ -3120,27 +3141,27 @@
         <v>21</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="C42" s="11" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3149,7 +3170,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -3158,27 +3179,27 @@
         <v>21</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3187,7 +3208,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>21</v>
@@ -3196,27 +3217,27 @@
         <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>21</v>
+      <c r="B44" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -3225,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>21</v>
@@ -3234,7 +3255,45 @@
         <v>21</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
@@ -3271,7 +3330,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3279,13 +3338,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3293,13 +3352,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3308,38 +3367,38 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G4" s="16">
-        <f>SUM(G10:G45)</f>
+        <f>SUM(G10:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3359,16 +3418,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3503,62 +3562,62 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" s="19">
-        <f>CEILING(BoardQty*10,1)</f>
-        <v>10</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G16" s="20">
         <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="E17" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*10,1)</f>
+        <v>10</v>
       </c>
       <c r="G17" s="20">
         <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="E18" s="19">
         <f>BoardQty*1</f>
@@ -3571,10 +3630,10 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>87</v>
@@ -3591,44 +3650,44 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="E20" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G20" s="20">
         <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="E21" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G21" s="20">
         <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
@@ -3637,16 +3696,16 @@
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="E22" s="19">
         <f>BoardQty*1</f>
@@ -3657,22 +3716,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="E23" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G23" s="20">
         <f>IF(AND(ISNUMBER(E23),ISNUMBER(F23)),E23*F23,"")</f>
@@ -3681,16 +3740,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="E24" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3701,22 +3760,22 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="E25" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G25" s="20">
         <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
@@ -3725,16 +3784,16 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="E26" s="19">
         <f>BoardQty*1</f>
@@ -3745,18 +3804,18 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3767,12 +3826,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>155</v>
@@ -3794,13 +3853,13 @@
         <v>161</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="E29" s="19">
         <f>BoardQty*1</f>
@@ -3813,42 +3872,42 @@
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="E30" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G30" s="20">
         <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E31" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G31" s="20">
         <f>IF(AND(ISNUMBER(E31),ISNUMBER(F31)),E31*F31,"")</f>
@@ -3860,7 +3919,7 @@
         <v>183</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>184</v>
@@ -3879,16 +3938,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E33" s="19">
         <f>BoardQty*1</f>
@@ -3901,16 +3960,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="E34" s="19">
         <f>BoardQty*1</f>
@@ -3923,42 +3982,42 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E35" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G35" s="20">
         <f>IF(AND(ISNUMBER(E35),ISNUMBER(F35)),E35*F35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E36" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G36" s="20">
         <f>IF(AND(ISNUMBER(E36),ISNUMBER(F36)),E36*F36,"")</f>
@@ -3967,16 +4026,16 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E37" s="19">
         <f>BoardQty*1</f>
@@ -3989,16 +4048,16 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="D38" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -4011,16 +4070,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -4033,16 +4092,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -4055,16 +4114,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4077,16 +4136,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4099,16 +4158,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4121,16 +4180,16 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>235</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4143,16 +4202,16 @@
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1">
       <c r="A45" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>238</v>
-      </c>
       <c r="C45" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" s="19">
         <f>BoardQty*1</f>
@@ -4163,17 +4222,39 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="23" t="s">
-        <v>270</v>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="A46" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="20">
+        <f>IF(AND(ISNUMBER(E46),ISNUMBER(F46)),E46*F46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4361,6 +4442,11 @@
       <formula>AND(ISBLANK(D45),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>AND(ISBLANK(D46),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
@@ -4398,10 +4484,11 @@
     <hyperlink ref="D43" r:id="rId34"/>
     <hyperlink ref="D44" r:id="rId35"/>
     <hyperlink ref="D45" r:id="rId36"/>
+    <hyperlink ref="D46" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId37"/>
-  <legacyDrawing r:id="rId38"/>
+  <drawing r:id="rId38"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -4418,72 +4505,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-07 12:34:16</t>
+    <t>2023-04-07 13:38:03</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-07 13:38:03</t>
+    <t>2023-04-07 13:50:14</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-07 13:50:14</t>
+    <t>2023-04-07 14:23:56</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -910,7 +910,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>2.0.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-07 14:23:56</t>
+    <t>2023-04-15 09:43:55</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-15 09:43:55</t>
+    <t>2023-04-15 09:55:41</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-15 09:55:41</t>
+    <t>2023-04-15 14:03:50</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,7 +970,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-15 14:03:50</t>
+    <t>2023-04-15 23:00:18</t>
   </si>
   <si>
     <t>KiCost® v1.1.15 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -970,10 +970,10 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-15 23:00:18</t>
-  </si>
-  <si>
-    <t>KiCost® v1.1.15 + KiBot v1.6.1</t>
+    <t>2023-04-16 11:03:22</t>
+  </si>
+  <si>
+    <t>KiCost® v1.1.16 + KiBot v1.6.1</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="298">
   <si>
     <t>Row</t>
   </si>
@@ -391,6 +391,24 @@
     <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -412,9 +430,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -433,6 +448,9 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -454,7 +472,7 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
@@ -478,7 +496,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -502,7 +520,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -526,7 +544,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -550,7 +568,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -574,7 +592,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -598,7 +616,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>J7</t>
@@ -616,7 +634,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -637,7 +655,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -661,7 +679,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -685,7 +703,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -703,7 +721,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -724,7 +742,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R3</t>
@@ -736,7 +754,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R1</t>
@@ -748,7 +766,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -760,7 +778,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -784,7 +802,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW5</t>
@@ -793,34 +811,34 @@
     <t>B</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -844,7 +862,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>SW7</t>
@@ -853,7 +871,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -874,7 +892,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Pico</t>
@@ -931,7 +949,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>72 (0 SMD/ 70 THT)</t>
+    <t>74 (2 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -970,7 +988,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-16 11:03:22</t>
+    <t>2023-04-16 12:28:04</t>
   </si>
   <si>
     <t>KiCost® v1.1.16 + KiBot v1.6.1</t>
@@ -1745,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1770,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1784,55 +1802,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F2" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1840,16 +1858,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2232,7 +2250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -2245,49 +2263,49 @@
       <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="60" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -2296,45 +2314,45 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="60" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>21</v>
@@ -2343,65 +2361,65 @@
         <v>21</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="60" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>12</v>
@@ -2410,45 +2428,45 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>21</v>
@@ -2457,27 +2475,27 @@
         <v>21</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>18</v>
@@ -2486,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>21</v>
@@ -2495,36 +2513,36 @@
         <v>21</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>21</v>
@@ -2533,27 +2551,27 @@
         <v>21</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2562,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
@@ -2571,18 +2589,18 @@
         <v>21</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>153</v>
@@ -2617,19 +2635,19 @@
         <v>158</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
@@ -2638,36 +2656,36 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2676,7 +2694,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>21</v>
@@ -2685,36 +2703,36 @@
         <v>21</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>21</v>
@@ -2723,30 +2741,30 @@
         <v>21</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
@@ -2768,20 +2786,20 @@
       <c r="A32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2790,36 +2808,36 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2828,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>21</v>
@@ -2837,27 +2855,27 @@
         <v>21</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2866,7 +2884,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>21</v>
@@ -2875,36 +2893,36 @@
         <v>21</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>21</v>
@@ -2913,18 +2931,18 @@
         <v>21</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>209</v>
@@ -2933,16 +2951,16 @@
         <v>210</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>21</v>
@@ -2951,18 +2969,18 @@
         <v>21</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>215</v>
@@ -2971,7 +2989,7 @@
         <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2980,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>21</v>
@@ -2989,27 +3007,27 @@
         <v>21</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -3018,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>21</v>
@@ -3027,27 +3045,27 @@
         <v>21</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3056,7 +3074,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>21</v>
@@ -3065,27 +3083,27 @@
         <v>21</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3094,7 +3112,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>21</v>
@@ -3103,27 +3121,27 @@
         <v>21</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3132,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>21</v>
@@ -3141,27 +3159,27 @@
         <v>21</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3170,7 +3188,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -3179,18 +3197,18 @@
         <v>21</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>235</v>
@@ -3199,7 +3217,7 @@
         <v>236</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3208,7 +3226,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>21</v>
@@ -3217,27 +3235,27 @@
         <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -3246,7 +3264,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>21</v>
@@ -3255,15 +3273,15 @@
         <v>21</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>245</v>
@@ -3294,6 +3312,44 @@
       </c>
       <c r="L45" s="6" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
@@ -3330,7 +3386,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3338,13 +3394,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3352,13 +3408,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3367,38 +3423,38 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G4" s="16">
-        <f>SUM(G10:G46)</f>
+        <f>SUM(G10:G47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3418,16 +3474,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3628,7 +3684,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="19" t="s">
         <v>85</v>
       </c>
@@ -3638,12 +3694,9 @@
       <c r="C19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G19" s="20">
         <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
@@ -3652,16 +3705,16 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="E20" s="19">
         <f>BoardQty*1</f>
@@ -3672,44 +3725,44 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="E21" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G21" s="20">
         <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="E22" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G22" s="20">
         <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
@@ -3718,16 +3771,16 @@
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="E23" s="19">
         <f>BoardQty*1</f>
@@ -3738,22 +3791,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="E24" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G24" s="20">
         <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
@@ -3762,16 +3815,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="E25" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3782,22 +3835,22 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="E26" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G26" s="20">
         <f>IF(AND(ISNUMBER(E26),ISNUMBER(F26)),E26*F26,"")</f>
@@ -3806,16 +3859,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="E27" s="19">
         <f>BoardQty*1</f>
@@ -3826,7 +3879,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>153</v>
       </c>
@@ -3848,18 +3901,18 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>160</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="E29" s="19">
         <f>BoardQty*1</f>
@@ -3872,16 +3925,16 @@
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3894,32 +3947,32 @@
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>179</v>
-      </c>
       <c r="E31" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G31" s="20">
         <f>IF(AND(ISNUMBER(E31),ISNUMBER(F31)),E31*F31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>184</v>
@@ -3928,8 +3981,8 @@
         <v>185</v>
       </c>
       <c r="E32" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G32" s="20">
         <f>IF(AND(ISNUMBER(E32),ISNUMBER(F32)),E32*F32,"")</f>
@@ -3938,16 +3991,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="D33" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="E33" s="19">
         <f>BoardQty*1</f>
@@ -3960,16 +4013,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E34" s="19">
         <f>BoardQty*1</f>
@@ -3982,16 +4035,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -4004,27 +4057,27 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E36" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G36" s="20">
         <f>IF(AND(ISNUMBER(E36),ISNUMBER(F36)),E36*F36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
         <v>209</v>
       </c>
@@ -4032,14 +4085,14 @@
         <v>210</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E37" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G37" s="20">
         <f>IF(AND(ISNUMBER(E37),ISNUMBER(F37)),E37*F37,"")</f>
@@ -4054,10 +4107,10 @@
         <v>216</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E38" s="19">
         <f>BoardQty*1</f>
@@ -4070,16 +4123,16 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>212</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -4092,16 +4145,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -4114,16 +4167,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4136,16 +4189,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4158,16 +4211,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4186,10 +4239,10 @@
         <v>236</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4202,16 +4255,16 @@
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E45" s="19">
         <f>BoardQty*1</f>
@@ -4244,17 +4297,39 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>276</v>
+    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="A47" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
+        <f>IF(AND(ISNUMBER(E47),ISNUMBER(F47)),E47*F47,"")</f>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="23" t="s">
-        <v>277</v>
+      <c r="A50" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4447,6 +4522,11 @@
       <formula>AND(ISBLANK(D46),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="0" priority="38">
+      <formula>AND(ISBLANK(D47),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
@@ -4457,34 +4537,34 @@
     <hyperlink ref="D16" r:id="rId7"/>
     <hyperlink ref="D17" r:id="rId8"/>
     <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D19" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D25" r:id="rId16"/>
-    <hyperlink ref="D26" r:id="rId17"/>
-    <hyperlink ref="D27" r:id="rId18"/>
-    <hyperlink ref="D28" r:id="rId19"/>
-    <hyperlink ref="D29" r:id="rId20"/>
-    <hyperlink ref="D30" r:id="rId21"/>
-    <hyperlink ref="D31" r:id="rId22"/>
-    <hyperlink ref="D32" r:id="rId23"/>
-    <hyperlink ref="D33" r:id="rId24"/>
-    <hyperlink ref="D34" r:id="rId25"/>
-    <hyperlink ref="D35" r:id="rId26"/>
-    <hyperlink ref="D36" r:id="rId27"/>
-    <hyperlink ref="D37" r:id="rId28"/>
-    <hyperlink ref="D38" r:id="rId29"/>
-    <hyperlink ref="D39" r:id="rId30"/>
-    <hyperlink ref="D40" r:id="rId31"/>
-    <hyperlink ref="D41" r:id="rId32"/>
-    <hyperlink ref="D42" r:id="rId33"/>
-    <hyperlink ref="D43" r:id="rId34"/>
-    <hyperlink ref="D44" r:id="rId35"/>
-    <hyperlink ref="D45" r:id="rId36"/>
-    <hyperlink ref="D46" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D22" r:id="rId12"/>
+    <hyperlink ref="D23" r:id="rId13"/>
+    <hyperlink ref="D24" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D27" r:id="rId17"/>
+    <hyperlink ref="D28" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D30" r:id="rId20"/>
+    <hyperlink ref="D31" r:id="rId21"/>
+    <hyperlink ref="D32" r:id="rId22"/>
+    <hyperlink ref="D33" r:id="rId23"/>
+    <hyperlink ref="D34" r:id="rId24"/>
+    <hyperlink ref="D35" r:id="rId25"/>
+    <hyperlink ref="D36" r:id="rId26"/>
+    <hyperlink ref="D37" r:id="rId27"/>
+    <hyperlink ref="D38" r:id="rId28"/>
+    <hyperlink ref="D39" r:id="rId29"/>
+    <hyperlink ref="D40" r:id="rId30"/>
+    <hyperlink ref="D41" r:id="rId31"/>
+    <hyperlink ref="D42" r:id="rId32"/>
+    <hyperlink ref="D43" r:id="rId33"/>
+    <hyperlink ref="D44" r:id="rId34"/>
+    <hyperlink ref="D45" r:id="rId35"/>
+    <hyperlink ref="D46" r:id="rId36"/>
+    <hyperlink ref="D47" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId38"/>
@@ -4505,72 +4585,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -397,7 +397,7 @@
     <t>Fuse_Small</t>
   </si>
   <si>
-    <t>F2 F3</t>
+    <t>F2 F3 F4 F5</t>
   </si>
   <si>
     <t>~</t>
@@ -949,7 +949,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>74 (2 SMD/ 70 THT)</t>
+    <t>76 (4 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -988,7 +988,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-16 12:28:04</t>
+    <t>2023-04-16 12:41:36</t>
   </si>
   <si>
     <t>KiCost® v1.1.16 + KiBot v1.6.1</t>
@@ -1867,7 +1867,7 @@
         <v>272</v>
       </c>
       <c r="F6" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2270,7 +2270,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>19</v>
@@ -3695,8 +3695,8 @@
         <v>87</v>
       </c>
       <c r="E19" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>CEILING(BoardQty*4,1)</f>
+        <v>4</v>
       </c>
       <c r="G19" s="20">
         <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.0.0-RC1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Date:</t>
@@ -988,7 +988,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-16 12:41:36</t>
+    <t>2023-04-24 18:46:53</t>
   </si>
   <si>
     <t>KiCost® v1.1.16 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -988,7 +988,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-24 18:46:53</t>
+    <t>2023-04-24 19:26:41</t>
   </si>
   <si>
     <t>KiCost® v1.1.16 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -988,7 +988,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-04-24 19:26:41</t>
+    <t>2023-05-13 09:00:49</t>
   </si>
   <si>
     <t>KiCost® v1.1.16 + KiBot v1.6.1</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -928,7 +928,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -940,7 +940,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.1.1-36-gbcf78dbe24-dirty-deb11</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -988,10 +988,10 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-05-13 09:00:49</t>
-  </si>
-  <si>
-    <t>KiCost® v1.1.16 + KiBot v1.6.1</t>
+    <t>2023-06-05 17:22:28</t>
+  </si>
+  <si>
+    <t>KiCost® v1.1.17 + KiBot v1.6.2</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -3379,7 +3379,7 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="61.7109375" customWidth="1" outlineLevel="2"/>
     <col min="4" max="4" width="61.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -988,7 +988,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-06-05 17:22:28</t>
+    <t>2023-06-05 17:48:50</t>
   </si>
   <si>
     <t>KiCost® v1.1.17 + KiBot v1.6.2</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="304">
   <si>
     <t>Row</t>
   </si>
@@ -499,6 +499,24 @@
     <t>15</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>PinHeader_2x02_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -520,7 +538,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -544,7 +562,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -568,7 +586,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -592,7 +610,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -616,7 +634,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>J7</t>
@@ -634,7 +652,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -655,7 +673,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -679,7 +697,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -703,7 +721,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -721,7 +739,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -742,7 +760,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R3</t>
@@ -754,7 +772,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R1</t>
@@ -766,7 +784,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -778,7 +796,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -802,7 +820,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW5</t>
@@ -811,25 +829,25 @@
     <t>B</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>SW3</t>
@@ -838,7 +856,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -862,7 +880,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>SW7</t>
@@ -871,7 +889,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -892,7 +910,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>Pico</t>
@@ -949,7 +967,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>76 (4 SMD/ 70 THT)</t>
+    <t>82 (4 SMD/ 76 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -988,7 +1006,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-06-05 17:48:50</t>
+    <t>2023-06-09 15:09:11</t>
   </si>
   <si>
     <t>KiCost® v1.1.17 + KiBot v1.6.2</t>
@@ -1763,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1788,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1802,55 +1820,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1858,16 +1876,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2440,7 +2458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="60" customHeight="1">
+    <row r="23" spans="1:12" ht="45" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
@@ -2460,51 +2478,51 @@
         <v>123</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>21</v>
@@ -2513,27 +2531,27 @@
         <v>21</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>18</v>
@@ -2542,7 +2560,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>21</v>
@@ -2551,36 +2569,36 @@
         <v>21</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
@@ -2589,27 +2607,27 @@
         <v>21</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2618,7 +2636,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>21</v>
@@ -2627,18 +2645,18 @@
         <v>21</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>159</v>
@@ -2673,19 +2691,19 @@
         <v>164</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2694,36 +2712,36 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2732,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>21</v>
@@ -2741,36 +2759,36 @@
         <v>21</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>21</v>
@@ -2779,30 +2797,30 @@
         <v>21</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>190</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -2824,20 +2842,20 @@
       <c r="A33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2846,36 +2864,36 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2884,7 +2902,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>21</v>
@@ -2893,27 +2911,27 @@
         <v>21</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2922,7 +2940,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>21</v>
@@ -2931,36 +2949,36 @@
         <v>21</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>21</v>
@@ -2969,18 +2987,18 @@
         <v>21</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>215</v>
@@ -2989,16 +3007,16 @@
         <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>21</v>
@@ -3007,18 +3025,18 @@
         <v>21</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>221</v>
@@ -3027,7 +3045,7 @@
         <v>222</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -3036,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>21</v>
@@ -3045,27 +3063,27 @@
         <v>21</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -3074,7 +3092,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>21</v>
@@ -3083,27 +3101,27 @@
         <v>21</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -3112,7 +3130,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>21</v>
@@ -3121,27 +3139,27 @@
         <v>21</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -3150,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>21</v>
@@ -3159,27 +3177,27 @@
         <v>21</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -3188,7 +3206,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -3197,27 +3215,27 @@
         <v>21</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -3226,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>21</v>
@@ -3235,18 +3253,18 @@
         <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>241</v>
@@ -3255,7 +3273,7 @@
         <v>242</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -3264,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>21</v>
@@ -3273,27 +3291,27 @@
         <v>21</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>12</v>
@@ -3302,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>21</v>
@@ -3311,15 +3329,15 @@
         <v>21</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>251</v>
@@ -3350,6 +3368,44 @@
       </c>
       <c r="L46" s="10" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
@@ -3386,7 +3442,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3394,13 +3450,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3408,13 +3464,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3423,38 +3479,38 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G4" s="16">
-        <f>SUM(G10:G47)</f>
+        <f>SUM(G10:G48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3474,16 +3530,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3791,7 +3847,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="19" t="s">
         <v>121</v>
       </c>
@@ -3801,34 +3857,31 @@
       <c r="C24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>124</v>
-      </c>
       <c r="E24" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*6,1)</f>
+        <v>6</v>
       </c>
       <c r="G24" s="20">
         <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="E25" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G25" s="20">
         <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
@@ -3837,16 +3890,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="E26" s="19">
         <f>CEILING(BoardQty*2,1)</f>
@@ -3857,22 +3910,22 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>148</v>
-      </c>
       <c r="E27" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G27" s="20">
         <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
@@ -3881,16 +3934,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="E28" s="19">
         <f>BoardQty*1</f>
@@ -3901,7 +3954,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>159</v>
       </c>
@@ -3923,18 +3976,18 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="E30" s="19">
         <f>BoardQty*1</f>
@@ -3947,16 +4000,16 @@
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="E31" s="19">
         <f>BoardQty*1</f>
@@ -3969,32 +4022,32 @@
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="D32" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="E32" s="19">
-        <f>CEILING(BoardQty*5,1)</f>
-        <v>5</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G32" s="20">
         <f>IF(AND(ISNUMBER(E32),ISNUMBER(F32)),E32*F32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="A33" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>190</v>
@@ -4003,8 +4056,8 @@
         <v>191</v>
       </c>
       <c r="E33" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*5,1)</f>
+        <v>5</v>
       </c>
       <c r="G33" s="20">
         <f>IF(AND(ISNUMBER(E33),ISNUMBER(F33)),E33*F33,"")</f>
@@ -4013,16 +4066,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="E34" s="19">
         <f>BoardQty*1</f>
@@ -4035,16 +4088,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E35" s="19">
         <f>BoardQty*1</f>
@@ -4057,16 +4110,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E36" s="19">
         <f>BoardQty*1</f>
@@ -4079,27 +4132,27 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E37" s="19">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <f>BoardQty*1</f>
+        <v>1</v>
       </c>
       <c r="G37" s="20">
         <f>IF(AND(ISNUMBER(E37),ISNUMBER(F37)),E37*F37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="19" t="s">
         <v>215</v>
       </c>
@@ -4107,14 +4160,14 @@
         <v>216</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E38" s="19">
-        <f>BoardQty*1</f>
-        <v>1</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
       </c>
       <c r="G38" s="20">
         <f>IF(AND(ISNUMBER(E38),ISNUMBER(F38)),E38*F38,"")</f>
@@ -4129,10 +4182,10 @@
         <v>222</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E39" s="19">
         <f>BoardQty*1</f>
@@ -4145,16 +4198,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="E40" s="19">
         <f>BoardQty*1</f>
@@ -4167,16 +4220,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E41" s="19">
         <f>BoardQty*1</f>
@@ -4189,16 +4242,16 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E42" s="19">
         <f>BoardQty*1</f>
@@ -4211,16 +4264,16 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E43" s="19">
         <f>BoardQty*1</f>
@@ -4233,16 +4286,16 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E44" s="19">
         <f>BoardQty*1</f>
@@ -4261,10 +4314,10 @@
         <v>242</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E45" s="19">
         <f>BoardQty*1</f>
@@ -4277,16 +4330,16 @@
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E46" s="19">
         <f>BoardQty*1</f>
@@ -4319,17 +4372,39 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>282</v>
+    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="A48" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="20">
+        <f>IF(AND(ISNUMBER(E48),ISNUMBER(F48)),E48*F48,"")</f>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="23" t="s">
-        <v>283</v>
+      <c r="A51" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="23" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4527,6 +4602,11 @@
       <formula>AND(ISBLANK(D47),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>AND(ISBLANK(D48),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D11" r:id="rId2"/>
@@ -4541,30 +4621,30 @@
     <hyperlink ref="D21" r:id="rId11"/>
     <hyperlink ref="D22" r:id="rId12"/>
     <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D24" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D27" r:id="rId17"/>
-    <hyperlink ref="D28" r:id="rId18"/>
-    <hyperlink ref="D29" r:id="rId19"/>
-    <hyperlink ref="D30" r:id="rId20"/>
-    <hyperlink ref="D31" r:id="rId21"/>
-    <hyperlink ref="D32" r:id="rId22"/>
-    <hyperlink ref="D33" r:id="rId23"/>
-    <hyperlink ref="D34" r:id="rId24"/>
-    <hyperlink ref="D35" r:id="rId25"/>
-    <hyperlink ref="D36" r:id="rId26"/>
-    <hyperlink ref="D37" r:id="rId27"/>
-    <hyperlink ref="D38" r:id="rId28"/>
-    <hyperlink ref="D39" r:id="rId29"/>
-    <hyperlink ref="D40" r:id="rId30"/>
-    <hyperlink ref="D41" r:id="rId31"/>
-    <hyperlink ref="D42" r:id="rId32"/>
-    <hyperlink ref="D43" r:id="rId33"/>
-    <hyperlink ref="D44" r:id="rId34"/>
-    <hyperlink ref="D45" r:id="rId35"/>
-    <hyperlink ref="D46" r:id="rId36"/>
-    <hyperlink ref="D47" r:id="rId37"/>
+    <hyperlink ref="D25" r:id="rId14"/>
+    <hyperlink ref="D26" r:id="rId15"/>
+    <hyperlink ref="D27" r:id="rId16"/>
+    <hyperlink ref="D28" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D31" r:id="rId20"/>
+    <hyperlink ref="D32" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D34" r:id="rId23"/>
+    <hyperlink ref="D35" r:id="rId24"/>
+    <hyperlink ref="D36" r:id="rId25"/>
+    <hyperlink ref="D37" r:id="rId26"/>
+    <hyperlink ref="D38" r:id="rId27"/>
+    <hyperlink ref="D39" r:id="rId28"/>
+    <hyperlink ref="D40" r:id="rId29"/>
+    <hyperlink ref="D41" r:id="rId30"/>
+    <hyperlink ref="D42" r:id="rId31"/>
+    <hyperlink ref="D43" r:id="rId32"/>
+    <hyperlink ref="D44" r:id="rId33"/>
+    <hyperlink ref="D45" r:id="rId34"/>
+    <hyperlink ref="D46" r:id="rId35"/>
+    <hyperlink ref="D47" r:id="rId36"/>
+    <hyperlink ref="D48" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId38"/>
@@ -4585,72 +4665,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -8,13 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Costs" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors" sheetId="3" r:id="rId3"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Costs" sheetId="3" r:id="rId3"/>
+    <sheet name="Costs (DNF)" sheetId="4" r:id="rId4"/>
+    <sheet name="Colors" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="BoardQty" localSheetId="1">'Costs'!$G$2</definedName>
+    <definedName name="BoardQty" localSheetId="3">'Costs (DNF)'!$G$2</definedName>
+    <definedName name="BoardQty" localSheetId="2">'Costs'!$G$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="TotalCost" localSheetId="1">'Costs'!$G$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
+    <definedName name="TotalCost" localSheetId="3">'Costs (DNF)'!$G$4</definedName>
+    <definedName name="TotalCost" localSheetId="2">'Costs'!$G$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -139,8 +144,127 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use the minimum extend price across distributors not taking account available quantities.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Schematic identifier for each part.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value of each part.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PCB footprint for each part.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manufacturer number for each part and link to it's datasheet (Ctrl-click).
+Purple -&gt; Obsolete part detected by one of the distributors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total number of each part needed.
+Gray -&gt; No manf# provided.
+Red -&gt; No parts available.
+Orange -&gt; Not enough parts available.
+Yellow -&gt; Parts available, but haven't purchased enough.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minimum unit price for each part across all distributors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minimum extended price for each part across all distributors.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="307">
   <si>
     <t>Row</t>
   </si>
@@ -349,7 +473,7 @@
     <t>NeoPixel_THT</t>
   </si>
   <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
+    <t>D1 D2 D3 D4</t>
   </si>
   <si>
     <t>NEOPIX</t>
@@ -358,39 +482,39 @@
     <t>LED_D5.0mm-NeoPixel</t>
   </si>
   <si>
+    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
-  </si>
-  <si>
     <t>Fuse, small symbol</t>
   </si>
   <si>
@@ -511,7 +635,7 @@
     <t>LED-Ring</t>
   </si>
   <si>
-    <t>PinHeader_2x02_P2.00mm_Vertical</t>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>16</t>
@@ -973,12 +1097,21 @@
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>76 (4 SMD/ 70 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
   </si>
   <si>
+    <t>D5 D6 D7 D8 D9 D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
     <t>Global Part Info</t>
   </si>
   <si>
@@ -1006,7 +1139,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-06-09 15:09:11</t>
+    <t>2023-06-12 14:27:04</t>
   </si>
   <si>
     <t>KiCost® v1.1.17 + KiBot v1.6.2</t>
@@ -1454,8 +1587,112 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2378784</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>454734</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1829,7 +2066,7 @@
         <v>273</v>
       </c>
       <c r="F2" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1857,7 +2094,7 @@
         <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1868,7 +2105,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1882,10 +2119,10 @@
         <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F6" s="3">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2212,42 +2449,42 @@
         <v>71</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -2256,21 +2493,21 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>83</v>
@@ -2890,7 +3127,7 @@
         <v>202</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>203</v>
@@ -3419,6 +3656,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -3456,7 +3888,7 @@
         <v>264</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3470,7 +3902,7 @@
         <v>266</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -3485,7 +3917,7 @@
         <v>268</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G4" s="16">
         <f>SUM(G10:G48)</f>
@@ -3510,7 +3942,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3530,16 +3962,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
@@ -3707,11 +4139,11 @@
         <v>71</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="19">
-        <f>CEILING(BoardQty*10,1)</f>
-        <v>10</v>
+        <f>CEILING(BoardQty*4,1)</f>
+        <v>4</v>
       </c>
       <c r="G17" s="20">
         <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
@@ -3720,16 +4152,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="E18" s="19">
         <f>BoardQty*1</f>
@@ -4091,7 +4523,7 @@
         <v>202</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>203</v>
@@ -4396,15 +4828,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="23" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4652,7 +5084,184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="32" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="D2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="D3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="15">
+        <f>TotalCost/BoardQty</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUM(G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="19">
+        <f>CEILING(BoardQty*6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="20">
+        <f>IF(AND(ISNUMBER(E10),ISNUMBER(F10)),E10*F10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(ISBLANK(D10),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -4665,72 +5274,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1139,7 +1139,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-06-12 14:27:04</t>
+    <t>2023-06-12 15:25:55</t>
   </si>
   <si>
     <t>KiCost® v1.1.17 + KiBot v1.6.2</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1139,10 +1139,10 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-06-12 15:25:55</t>
-  </si>
-  <si>
-    <t>KiCost® v1.1.17 + KiBot v1.6.2</t>
+    <t>2023-07-09 16:37:20</t>
+  </si>
+  <si>
+    <t>KiCost® v1.1.18 + KiBot v1.6.3</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1139,7 +1139,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-07-09 16:37:20</t>
+    <t>2023-07-18 10:36:12</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1082,7 +1082,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
+    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1139,7 +1139,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-07-18 10:36:12</t>
+    <t>2023-09-09 12:20:14</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>
@@ -3669,7 +3669,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -3865,9 +3865,9 @@
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1" outlineLevel="2"/>
     <col min="4" max="4" width="61.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
@@ -5100,7 +5100,7 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1" outlineLevel="2"/>
     <col min="4" max="4" width="57.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -15,11 +15,11 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty" localSheetId="3">'Costs (DNF)'!$G$2</definedName>
-    <definedName name="BoardQty" localSheetId="2">'Costs'!$G$2</definedName>
+    <definedName name="BoardQty" localSheetId="2">'Costs'!$H$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
     <definedName name="TotalCost" localSheetId="3">'Costs (DNF)'!$G$4</definedName>
-    <definedName name="TotalCost" localSheetId="2">'Costs'!$G$4</definedName>
+    <definedName name="TotalCost" localSheetId="2">'Costs'!$H$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,11 +79,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Description of each part.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>PCB footprint for each part.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="331">
   <si>
     <t>Row</t>
   </si>
@@ -302,6 +315,36 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>DigiKey_Part_Number</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Purchase-URL</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>OC_FARNELL</t>
+  </si>
+  <si>
+    <t>SnapEDA_Link</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>OC_NEWARK</t>
+  </si>
+  <si>
+    <t>Check_prices</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -1016,6 +1059,45 @@
     <t>38</t>
   </si>
   <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Diodes INC</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7DITR-ND</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/api/url_track_click_mouser/?unipart_id=579086&amp;manufacturer=Diodes Inc.&amp;part_name=74AHCT1G32SE-7&amp;search_term=None</t>
+  </si>
+  <si>
+    <t>SOT-353-5 SOT-353 Diodes Inc.</t>
+  </si>
+  <si>
+    <t>2057398</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/parts/74AHCT1G32SE-7/Diodes+Inc./view-part/?ref=snap</t>
+  </si>
+  <si>
+    <t>64T4877</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/parts/74AHCT1G32SE-7/Diodes+Inc./view-part/?ref=eda</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -1034,7 +1116,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1091,13 +1173,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>82 (4 SMD/ 76 THT)</t>
+    <t>83 (5 SMD/ 76 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>76 (4 SMD/ 70 THT)</t>
+    <t>77 (5 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1127,6 +1209,9 @@
     <t>Ext$</t>
   </si>
   <si>
+    <t>OR Gate IC 1 Channel - SOT-353</t>
+  </si>
+  <si>
     <t>Board Qty:</t>
   </si>
   <si>
@@ -1139,7 +1224,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-09-09 12:20:14</t>
+    <t>2023-09-10 09:48:11</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>
@@ -2018,7 +2103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2039,11 +2124,21 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="60.7109375" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2054,78 +2149,88 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -2162,1492 +2267,2760 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="60" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="45" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="60" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="30" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="F40" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="I40" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="60" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="I41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>220</v>
-      </c>
       <c r="D42" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="G42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="J42" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1">
+        <v>235</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="M43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+        <v>255</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1">
+        <v>255</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="45" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>254</v>
+        <v>29</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1">
+        <v>263</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>21</v>
+        <v>272</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3657,7 +5030,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3678,11 +5051,21 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3693,78 +5076,88 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -3801,48 +5194,108 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3852,11 +5305,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -3865,84 +5318,86 @@
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1">
+    <row r="1" spans="1:8" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="D3" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" s="15">
         <f>TotalCost/BoardQty</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" s="16">
-        <f>SUM(G10:G48)</f>
+        <v>291</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="16">
+        <f>SUM(H10:H49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="D5" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3950,8 +5405,9 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
@@ -3959,1124 +5415,1157 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>283</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+        <v>308</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="19">
+        <v>27</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G10" s="20">
-        <f>IF(AND(ISNUMBER(E10),ISNUMBER(F10)),E10*F10,"")</f>
+      <c r="H10" s="20">
+        <f>IF(AND(ISNUMBER(F10),ISNUMBER(G10)),F10*G10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="19">
+        <v>35</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="19">
         <f>CEILING(BoardQty*12,1)</f>
         <v>12</v>
       </c>
-      <c r="G11" s="20">
-        <f>IF(AND(ISNUMBER(E11),ISNUMBER(F11)),E11*F11,"")</f>
+      <c r="H11" s="20">
+        <f>IF(AND(ISNUMBER(F11),ISNUMBER(G11)),F11*G11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
+    <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="19">
+        <v>42</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G12" s="20">
-        <f>IF(AND(ISNUMBER(E12),ISNUMBER(F12)),E12*F12,"")</f>
+      <c r="H12" s="20">
+        <f>IF(AND(ISNUMBER(F12),ISNUMBER(G12)),F12*G12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="19">
+        <v>50</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="19">
         <f>CEILING(BoardQty*3,1)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="20">
-        <f>IF(AND(ISNUMBER(E13),ISNUMBER(F13)),E13*F13,"")</f>
+      <c r="H13" s="20">
+        <f>IF(AND(ISNUMBER(F13),ISNUMBER(G13)),F13*G13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="19">
+        <v>57</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G14" s="20">
-        <f>IF(AND(ISNUMBER(E14),ISNUMBER(F14)),E14*F14,"")</f>
+      <c r="H14" s="20">
+        <f>IF(AND(ISNUMBER(F14),ISNUMBER(G14)),F14*G14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="19">
+        <v>66</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G15" s="20">
-        <f>IF(AND(ISNUMBER(E15),ISNUMBER(F15)),E15*F15,"")</f>
+      <c r="H15" s="20">
+        <f>IF(AND(ISNUMBER(F15),ISNUMBER(G15)),F15*G15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="19">
+        <v>73</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G16" s="20">
-        <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
+      <c r="H16" s="20">
+        <f>IF(AND(ISNUMBER(F16),ISNUMBER(G16)),F16*G16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+    <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="19">
+        <v>81</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="19">
         <f>CEILING(BoardQty*4,1)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="20">
-        <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
+      <c r="H17" s="20">
+        <f>IF(AND(ISNUMBER(F17),ISNUMBER(G17)),F17*G17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="19">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G18" s="20">
-        <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
+      <c r="H18" s="20">
+        <f>IF(AND(ISNUMBER(F18),ISNUMBER(G18)),F18*G18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="19">
+        <v>96</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="19">
         <f>CEILING(BoardQty*4,1)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="20">
-        <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
+      <c r="H19" s="20">
+        <f>IF(AND(ISNUMBER(F19),ISNUMBER(G19)),F19*G19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
+    <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="19">
+        <v>103</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G20" s="20">
-        <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
+      <c r="H20" s="20">
+        <f>IF(AND(ISNUMBER(F20),ISNUMBER(G20)),F20*G20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+    <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="19">
+        <v>109</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G21" s="20">
-        <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
+      <c r="H21" s="20">
+        <f>IF(AND(ISNUMBER(F21),ISNUMBER(G21)),F21*G21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="19">
+        <v>117</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="19">
         <f>CEILING(BoardQty*5,1)</f>
         <v>5</v>
       </c>
-      <c r="G22" s="20">
-        <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
+      <c r="H22" s="20">
+        <f>IF(AND(ISNUMBER(F22),ISNUMBER(G22)),F22*G22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
+    <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="19">
+        <v>125</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G23" s="20">
-        <f>IF(AND(ISNUMBER(E23),ISNUMBER(F23)),E23*F23,"")</f>
+      <c r="H23" s="20">
+        <f>IF(AND(ISNUMBER(F23),ISNUMBER(G23)),F23*G23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="19">
+        <v>132</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="19">
         <f>CEILING(BoardQty*6,1)</f>
         <v>6</v>
       </c>
-      <c r="G24" s="20">
-        <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
+      <c r="H24" s="20">
+        <f>IF(AND(ISNUMBER(F24),ISNUMBER(G24)),F24*G24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
+    <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="19">
+        <v>139</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G25" s="20">
-        <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
+      <c r="H25" s="20">
+        <f>IF(AND(ISNUMBER(F25),ISNUMBER(G25)),F25*G25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="19">
+        <v>147</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="20">
-        <f>IF(AND(ISNUMBER(E26),ISNUMBER(F26)),E26*F26,"")</f>
+      <c r="H26" s="20">
+        <f>IF(AND(ISNUMBER(F26),ISNUMBER(G26)),F26*G26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="19">
+        <v>155</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="20">
-        <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
+      <c r="H27" s="20">
+        <f>IF(AND(ISNUMBER(F27),ISNUMBER(G27)),F27*G27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
+    <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="19">
+        <v>163</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G28" s="20">
-        <f>IF(AND(ISNUMBER(E28),ISNUMBER(F28)),E28*F28,"")</f>
+      <c r="H28" s="20">
+        <f>IF(AND(ISNUMBER(F28),ISNUMBER(G28)),F28*G28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
+    <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="19">
+        <v>171</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G29" s="20">
-        <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
+      <c r="H29" s="20">
+        <f>IF(AND(ISNUMBER(F29),ISNUMBER(G29)),F29*G29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="19">
+        <v>177</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G30" s="20">
-        <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
+      <c r="H30" s="20">
+        <f>IF(AND(ISNUMBER(F30),ISNUMBER(G30)),F30*G30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
+    <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="19">
+        <v>184</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G31" s="20">
-        <f>IF(AND(ISNUMBER(E31),ISNUMBER(F31)),E31*F31,"")</f>
+      <c r="H31" s="20">
+        <f>IF(AND(ISNUMBER(F31),ISNUMBER(G31)),F31*G31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
+    <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="19">
+        <v>192</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G32" s="20">
-        <f>IF(AND(ISNUMBER(E32),ISNUMBER(F32)),E32*F32,"")</f>
+      <c r="H32" s="20">
+        <f>IF(AND(ISNUMBER(F32),ISNUMBER(G32)),F32*G32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
+    <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="19">
+        <v>200</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="19">
         <f>CEILING(BoardQty*5,1)</f>
         <v>5</v>
       </c>
-      <c r="G33" s="20">
-        <f>IF(AND(ISNUMBER(E33),ISNUMBER(F33)),E33*F33,"")</f>
+      <c r="H33" s="20">
+        <f>IF(AND(ISNUMBER(F33),ISNUMBER(G33)),F33*G33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="19">
+        <v>206</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="20">
-        <f>IF(AND(ISNUMBER(E34),ISNUMBER(F34)),E34*F34,"")</f>
+      <c r="H34" s="20">
+        <f>IF(AND(ISNUMBER(F34),ISNUMBER(G34)),F34*G34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="19">
+        <v>213</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G35" s="20">
-        <f>IF(AND(ISNUMBER(E35),ISNUMBER(F35)),E35*F35,"")</f>
+      <c r="H35" s="20">
+        <f>IF(AND(ISNUMBER(F35),ISNUMBER(G35)),F35*G35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="19">
+        <v>213</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G36" s="20">
-        <f>IF(AND(ISNUMBER(E36),ISNUMBER(F36)),E36*F36,"")</f>
+      <c r="H36" s="20">
+        <f>IF(AND(ISNUMBER(F36),ISNUMBER(G36)),F36*G36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="19">
+        <v>213</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G37" s="20">
-        <f>IF(AND(ISNUMBER(E37),ISNUMBER(F37)),E37*F37,"")</f>
+      <c r="H37" s="20">
+        <f>IF(AND(ISNUMBER(F37),ISNUMBER(G37)),F37*G37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="19">
+        <v>213</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="19">
         <f>CEILING(BoardQty*2,1)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="20">
-        <f>IF(AND(ISNUMBER(E38),ISNUMBER(F38)),E38*F38,"")</f>
+      <c r="H38" s="20">
+        <f>IF(AND(ISNUMBER(F38),ISNUMBER(G38)),F38*G38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
+    <row r="39" spans="1:8" ht="30" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="19">
+        <v>233</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G39" s="20">
-        <f>IF(AND(ISNUMBER(E39),ISNUMBER(F39)),E39*F39,"")</f>
+      <c r="H39" s="20">
+        <f>IF(AND(ISNUMBER(F39),ISNUMBER(G39)),F39*G39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
+    <row r="40" spans="1:8" ht="30" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" s="19">
+        <v>233</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G40" s="20">
-        <f>IF(AND(ISNUMBER(E40),ISNUMBER(F40)),E40*F40,"")</f>
+      <c r="H40" s="20">
+        <f>IF(AND(ISNUMBER(F40),ISNUMBER(G40)),F40*G40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
+    <row r="41" spans="1:8" ht="30" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" s="19">
+        <v>233</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G41" s="20">
-        <f>IF(AND(ISNUMBER(E41),ISNUMBER(F41)),E41*F41,"")</f>
+      <c r="H41" s="20">
+        <f>IF(AND(ISNUMBER(F41),ISNUMBER(G41)),F41*G41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
+    <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E42" s="19">
+        <v>233</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G42" s="20">
-        <f>IF(AND(ISNUMBER(E42),ISNUMBER(F42)),E42*F42,"")</f>
+      <c r="H42" s="20">
+        <f>IF(AND(ISNUMBER(F42),ISNUMBER(G42)),F42*G42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
+    <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="E43" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="F43" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G43" s="20">
-        <f>IF(AND(ISNUMBER(E43),ISNUMBER(F43)),E43*F43,"")</f>
+      <c r="H43" s="20">
+        <f>IF(AND(ISNUMBER(F43),ISNUMBER(G43)),F43*G43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
+    <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E44" s="19">
+        <v>233</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G44" s="20">
-        <f>IF(AND(ISNUMBER(E44),ISNUMBER(F44)),E44*F44,"")</f>
+      <c r="H44" s="20">
+        <f>IF(AND(ISNUMBER(F44),ISNUMBER(G44)),F44*G44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
+    <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" s="19">
+        <v>253</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G45" s="20">
-        <f>IF(AND(ISNUMBER(E45),ISNUMBER(F45)),E45*F45,"")</f>
+      <c r="H45" s="20">
+        <f>IF(AND(ISNUMBER(F45),ISNUMBER(G45)),F45*G45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
+    <row r="46" spans="1:8" ht="30" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" s="19">
+        <v>253</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G46" s="20">
-        <f>IF(AND(ISNUMBER(E46),ISNUMBER(F46)),E46*F46,"")</f>
+      <c r="H46" s="20">
+        <f>IF(AND(ISNUMBER(F46),ISNUMBER(G46)),F46*G46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="19">
+        <v>262</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G47" s="20">
-        <f>IF(AND(ISNUMBER(E47),ISNUMBER(F47)),E47*F47,"")</f>
+      <c r="H47" s="20">
+        <f>IF(AND(ISNUMBER(F47),ISNUMBER(G47)),F47*G47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
+    <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="19">
+        <v>276</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="19">
         <f>BoardQty*1</f>
         <v>1</v>
       </c>
-      <c r="G48" s="20">
-        <f>IF(AND(ISNUMBER(E48),ISNUMBER(F48)),E48*F48,"")</f>
+      <c r="H48" s="20">
+        <f>IF(AND(ISNUMBER(F48),ISNUMBER(G48)),F48*G48,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="23" t="s">
-        <v>292</v>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
+      <c r="A49" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="19">
+        <f>BoardQty*1</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="20">
+        <f>IF(AND(ISNUMBER(F49),ISNUMBER(G49)),F49*G49,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="23" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(ISBLANK(D10),TRUE())</formula>
+      <formula>AND(ISBLANK(E10),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="F11">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(ISBLANK(D11),TRUE())</formula>
+      <formula>AND(ISBLANK(E11),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="F12">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(ISBLANK(D12),TRUE())</formula>
+      <formula>AND(ISBLANK(E12),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(ISBLANK(D13),TRUE())</formula>
+      <formula>AND(ISBLANK(E13),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(ISBLANK(D14),TRUE())</formula>
+      <formula>AND(ISBLANK(E14),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="F15">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(ISBLANK(D15),TRUE())</formula>
+      <formula>AND(ISBLANK(E15),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="F16">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND(ISBLANK(D16),TRUE())</formula>
+      <formula>AND(ISBLANK(E16),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="F17">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(ISBLANK(D17),TRUE())</formula>
+      <formula>AND(ISBLANK(E17),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(ISBLANK(D18),TRUE())</formula>
+      <formula>AND(ISBLANK(E18),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="F19">
     <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND(ISBLANK(D19),TRUE())</formula>
+      <formula>AND(ISBLANK(E19),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>AND(ISBLANK(D20),TRUE())</formula>
+      <formula>AND(ISBLANK(E20),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="F21">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(ISBLANK(D21),TRUE())</formula>
+      <formula>AND(ISBLANK(E21),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND(ISBLANK(D22),TRUE())</formula>
+      <formula>AND(ISBLANK(E22),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="F23">
     <cfRule type="expression" dxfId="0" priority="14">
-      <formula>AND(ISBLANK(D23),TRUE())</formula>
+      <formula>AND(ISBLANK(E23),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="F24">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND(ISBLANK(D24),TRUE())</formula>
+      <formula>AND(ISBLANK(E24),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="F25">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>AND(ISBLANK(D25),TRUE())</formula>
+      <formula>AND(ISBLANK(E25),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="F26">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND(ISBLANK(D26),TRUE())</formula>
+      <formula>AND(ISBLANK(E26),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" dxfId="0" priority="18">
-      <formula>AND(ISBLANK(D27),TRUE())</formula>
+      <formula>AND(ISBLANK(E27),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="F28">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>AND(ISBLANK(D28),TRUE())</formula>
+      <formula>AND(ISBLANK(E28),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="F29">
     <cfRule type="expression" dxfId="0" priority="20">
-      <formula>AND(ISBLANK(D29),TRUE())</formula>
+      <formula>AND(ISBLANK(E29),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="F30">
     <cfRule type="expression" dxfId="0" priority="21">
-      <formula>AND(ISBLANK(D30),TRUE())</formula>
+      <formula>AND(ISBLANK(E30),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="F31">
     <cfRule type="expression" dxfId="0" priority="22">
-      <formula>AND(ISBLANK(D31),TRUE())</formula>
+      <formula>AND(ISBLANK(E31),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="F32">
     <cfRule type="expression" dxfId="0" priority="23">
-      <formula>AND(ISBLANK(D32),TRUE())</formula>
+      <formula>AND(ISBLANK(E32),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="F33">
     <cfRule type="expression" dxfId="0" priority="24">
-      <formula>AND(ISBLANK(D33),TRUE())</formula>
+      <formula>AND(ISBLANK(E33),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="0" priority="25">
-      <formula>AND(ISBLANK(D34),TRUE())</formula>
+      <formula>AND(ISBLANK(E34),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="0" priority="26">
-      <formula>AND(ISBLANK(D35),TRUE())</formula>
+      <formula>AND(ISBLANK(E35),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" dxfId="0" priority="27">
-      <formula>AND(ISBLANK(D36),TRUE())</formula>
+      <formula>AND(ISBLANK(E36),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="F37">
     <cfRule type="expression" dxfId="0" priority="28">
-      <formula>AND(ISBLANK(D37),TRUE())</formula>
+      <formula>AND(ISBLANK(E37),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="F38">
     <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND(ISBLANK(D38),TRUE())</formula>
+      <formula>AND(ISBLANK(E38),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="F39">
     <cfRule type="expression" dxfId="0" priority="30">
-      <formula>AND(ISBLANK(D39),TRUE())</formula>
+      <formula>AND(ISBLANK(E39),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="F40">
     <cfRule type="expression" dxfId="0" priority="31">
-      <formula>AND(ISBLANK(D40),TRUE())</formula>
+      <formula>AND(ISBLANK(E40),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="F41">
     <cfRule type="expression" dxfId="0" priority="32">
-      <formula>AND(ISBLANK(D41),TRUE())</formula>
+      <formula>AND(ISBLANK(E41),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="F42">
     <cfRule type="expression" dxfId="0" priority="33">
-      <formula>AND(ISBLANK(D42),TRUE())</formula>
+      <formula>AND(ISBLANK(E42),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="F43">
     <cfRule type="expression" dxfId="0" priority="34">
-      <formula>AND(ISBLANK(D43),TRUE())</formula>
+      <formula>AND(ISBLANK(E43),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="F44">
     <cfRule type="expression" dxfId="0" priority="35">
-      <formula>AND(ISBLANK(D44),TRUE())</formula>
+      <formula>AND(ISBLANK(E44),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="0" priority="36">
-      <formula>AND(ISBLANK(D45),TRUE())</formula>
+      <formula>AND(ISBLANK(E45),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="0" priority="37">
-      <formula>AND(ISBLANK(D46),TRUE())</formula>
+      <formula>AND(ISBLANK(E46),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="F47">
     <cfRule type="expression" dxfId="0" priority="38">
-      <formula>AND(ISBLANK(D47),TRUE())</formula>
+      <formula>AND(ISBLANK(E47),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="F48">
     <cfRule type="expression" dxfId="0" priority="39">
-      <formula>AND(ISBLANK(D48),TRUE())</formula>
+      <formula>AND(ISBLANK(E48),TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="0" priority="40">
+      <formula>AND(ISBLANK(E49),TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D20" r:id="rId10"/>
-    <hyperlink ref="D21" r:id="rId11"/>
-    <hyperlink ref="D22" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D25" r:id="rId14"/>
-    <hyperlink ref="D26" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D28" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
-    <hyperlink ref="D31" r:id="rId20"/>
-    <hyperlink ref="D32" r:id="rId21"/>
-    <hyperlink ref="D33" r:id="rId22"/>
-    <hyperlink ref="D34" r:id="rId23"/>
-    <hyperlink ref="D35" r:id="rId24"/>
-    <hyperlink ref="D36" r:id="rId25"/>
-    <hyperlink ref="D37" r:id="rId26"/>
-    <hyperlink ref="D38" r:id="rId27"/>
-    <hyperlink ref="D39" r:id="rId28"/>
-    <hyperlink ref="D40" r:id="rId29"/>
-    <hyperlink ref="D41" r:id="rId30"/>
-    <hyperlink ref="D42" r:id="rId31"/>
-    <hyperlink ref="D43" r:id="rId32"/>
-    <hyperlink ref="D44" r:id="rId33"/>
-    <hyperlink ref="D45" r:id="rId34"/>
-    <hyperlink ref="D46" r:id="rId35"/>
-    <hyperlink ref="D47" r:id="rId36"/>
-    <hyperlink ref="D48" r:id="rId37"/>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId8"/>
+    <hyperlink ref="E18" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10"/>
+    <hyperlink ref="E21" r:id="rId11"/>
+    <hyperlink ref="E22" r:id="rId12"/>
+    <hyperlink ref="E23" r:id="rId13"/>
+    <hyperlink ref="E25" r:id="rId14"/>
+    <hyperlink ref="E26" r:id="rId15"/>
+    <hyperlink ref="E27" r:id="rId16"/>
+    <hyperlink ref="E28" r:id="rId17"/>
+    <hyperlink ref="E29" r:id="rId18"/>
+    <hyperlink ref="E30" r:id="rId19"/>
+    <hyperlink ref="E31" r:id="rId20"/>
+    <hyperlink ref="E32" r:id="rId21"/>
+    <hyperlink ref="E33" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23"/>
+    <hyperlink ref="E35" r:id="rId24"/>
+    <hyperlink ref="E36" r:id="rId25"/>
+    <hyperlink ref="E37" r:id="rId26"/>
+    <hyperlink ref="E38" r:id="rId27"/>
+    <hyperlink ref="E39" r:id="rId28"/>
+    <hyperlink ref="E40" r:id="rId29"/>
+    <hyperlink ref="E41" r:id="rId30"/>
+    <hyperlink ref="E42" r:id="rId31"/>
+    <hyperlink ref="E43" r:id="rId32"/>
+    <hyperlink ref="E44" r:id="rId33"/>
+    <hyperlink ref="E45" r:id="rId34"/>
+    <hyperlink ref="E46" r:id="rId35"/>
+    <hyperlink ref="E48" r:id="rId36"/>
+    <hyperlink ref="E49" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId38"/>
@@ -5107,7 +6596,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -5115,13 +6604,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -5129,13 +6618,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="D3" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G3" s="15">
         <f>TotalCost/BoardQty</f>
@@ -5144,13 +6633,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="G4" s="16">
         <f>SUM(G10)</f>
@@ -5159,23 +6648,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5195,30 +6684,30 @@
         <v>5</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E10" s="19">
         <f>CEILING(BoardQty*6,1)</f>
@@ -5231,15 +6720,15 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="21" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="23" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5274,72 +6763,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="26" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="27" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="30" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1152,13 +1152,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.1.0-RC1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-03-12</t>
+    <t>2023-09-10</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1224,7 +1224,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-09-10 09:48:11</t>
+    <t>2023-09-10 10:07:25</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1224,7 +1224,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-09-10 10:07:25</t>
+    <t>2023-09-10 10:41:06</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1224,7 +1224,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-09-10 10:41:06</t>
+    <t>2023-09-10 11:30:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1224,7 +1224,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-09-10 11:30:24</t>
+    <t>2023-09-10 11:40:44</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>

--- a/BoM/Costs/pedalboard-hw-bom.xlsx
+++ b/BoM/Costs/pedalboard-hw-bom.xlsx
@@ -1152,7 +1152,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>3.0.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -1224,7 +1224,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-09-10 11:40:44</t>
+    <t>2023-09-10 11:54:45</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>
